--- a/Outputs/1. Budget/Grid Search/Output Files/420000/Output_17_14.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/420000/Output_17_14.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>136987.0269323152</v>
+        <v>15939.15850488909</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>21118222.51054865</v>
+        <v>21132912.79784804</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4095980.014371519</v>
+        <v>4095267.473220179</v>
       </c>
     </row>
     <row r="11">
@@ -1381,61 +1381,61 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>23.48030542320597</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>33.80723145564642</v>
+      </c>
+      <c r="R11" t="n">
         <v>64.00529135902983</v>
       </c>
-      <c r="H11" t="n">
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
         <v>64.00529135902983</v>
       </c>
-      <c r="I11" t="n">
+      <c r="W11" t="n">
         <v>64.00529135902983</v>
       </c>
-      <c r="J11" t="n">
-        <v>32.89555520582749</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0</v>
-      </c>
-      <c r="W11" t="n">
-        <v>0</v>
-      </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>22.56862917338704</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1460,47 +1460,47 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>17.77556708637187</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>64.00529135902983</v>
       </c>
       <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>20.76449804307808</v>
+      </c>
+      <c r="R12" t="n">
         <v>64.00529135902983</v>
       </c>
-      <c r="I12" t="n">
+      <c r="S12" t="n">
         <v>64.00529135902983</v>
       </c>
-      <c r="J12" t="n">
-        <v>38.60029354266159</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>0</v>
-      </c>
-      <c r="R12" t="n">
-        <v>0</v>
-      </c>
-      <c r="S12" t="n">
-        <v>0</v>
-      </c>
       <c r="T12" t="n">
         <v>0</v>
       </c>
@@ -1508,7 +1508,7 @@
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>35.61136258595534</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
@@ -1618,16 +1618,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>56.37586062903344</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>64.00529135902983</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>64.00529135902983</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>64.00529135902983</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1654,7 +1654,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>81.61928733384123</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -1663,13 +1663,13 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1697,19 +1697,19 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>17.77556708637187</v>
+        <v>75.37201941954103</v>
       </c>
       <c r="G15" t="n">
-        <v>64.00529135902983</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>64.00529135902983</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>64.00529135902983</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>38.60029354266159</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1730,19 +1730,19 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>14.3427387906227</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>84.56947841277972</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -1843,28 +1843,28 @@
         </is>
       </c>
       <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
         <v>81.61928733384123</v>
       </c>
-      <c r="C17" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>92.6649492891022</v>
       </c>
-      <c r="F17" t="n">
-        <v>0</v>
-      </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
         <v>92.6649492891022</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1937,7 +1937,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1970,19 +1970,19 @@
         <v>14.3427387906227</v>
       </c>
       <c r="R18" t="n">
-        <v>84.56947841277972</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>92.6649492891022</v>
       </c>
       <c r="T18" t="n">
+        <v>0</v>
+      </c>
+      <c r="U18" t="n">
         <v>92.6649492891022</v>
       </c>
-      <c r="U18" t="n">
-        <v>75.37201941954103</v>
-      </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>67.27654854321852</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -2086,17 +2086,17 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
         <v>92.6649492891022</v>
       </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
@@ -2125,31 +2125,31 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>23.65357118422324</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>57.96571614961795</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
       </c>
       <c r="T20" t="n">
+        <v>81.61928733384123</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
         <v>92.6649492891022</v>
       </c>
-      <c r="U20" t="n">
-        <v>0</v>
-      </c>
-      <c r="V20" t="n">
-        <v>0</v>
-      </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>92.6649492891022</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2162,17 +2162,17 @@
         <v>92.6649492891022</v>
       </c>
       <c r="C21" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
         <v>92.6649492891022</v>
       </c>
-      <c r="D21" t="n">
+      <c r="F21" t="n">
         <v>92.6649492891022</v>
       </c>
-      <c r="E21" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0</v>
-      </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
@@ -2213,10 +2213,10 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
+        <v>0</v>
+      </c>
+      <c r="U21" t="n">
         <v>81.61928733384123</v>
-      </c>
-      <c r="U21" t="n">
-        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -2320,7 +2320,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>101.9028910972014</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -2335,7 +2335,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>101.9028910972014</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2365,25 +2365,25 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>97.33069030851817</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>97.33069030851817</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>97.33069030851817</v>
       </c>
       <c r="U23" t="n">
-        <v>89.75606647841495</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>85.72887202374281</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>101.9028910972014</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>101.9028910972014</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -2408,7 +2408,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>85.72887202374281</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2447,22 +2447,22 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>97.33069030851817</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>97.33069030851817</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>97.33069030851817</v>
       </c>
       <c r="V24" t="n">
-        <v>89.75606647841495</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>101.9028910972014</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>101.9028910972014</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0.9951433092430715</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2557,22 +2557,22 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>97.33069030851817</v>
       </c>
       <c r="D26" t="n">
-        <v>101.9028910972014</v>
+        <v>97.33069030851817</v>
       </c>
       <c r="E26" t="n">
-        <v>89.75606647841492</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>101.9028910972014</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>101.9028910972014</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>85.72887202374281</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2608,7 +2608,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>97.33069030851817</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -2633,7 +2633,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>97.33069030851817</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -2642,10 +2642,10 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>101.9028910972014</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>101.9028910972014</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -2654,7 +2654,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.752908665971556</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,22 +2681,22 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>83.97596335777126</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>97.33069030851817</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>97.33069030851817</v>
       </c>
       <c r="U27" t="n">
-        <v>101.9028910972014</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>89.75606647841492</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -2757,7 +2757,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.9951433092430715</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -2797,22 +2797,22 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>85.72887202374281</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>97.33069030851817</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>101.9028910972014</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>101.9028910972014</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2839,7 +2839,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>89.75606647841495</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -2854,10 +2854,10 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>97.33069030851817</v>
       </c>
       <c r="X29" t="n">
-        <v>101.9028910972014</v>
+        <v>97.33069030851817</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2870,13 +2870,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>101.9028910972014</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>97.33069030851817</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -2888,13 +2888,13 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>97.33069030851817</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>1.752908665971556</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2918,22 +2918,22 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>83.97596335777126</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>97.33069030851817</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>101.9028910972014</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>89.75606647841492</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>101.9028910972014</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -2970,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0.9951433092430556</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3034,7 +3034,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>101.9028910972014</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -3082,16 +3082,16 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>89.75606647841495</v>
+        <v>85.72887202374278</v>
       </c>
       <c r="U32" t="n">
-        <v>101.9028910972014</v>
+        <v>97.33069030851817</v>
       </c>
       <c r="V32" t="n">
-        <v>101.9028910972014</v>
+        <v>97.33069030851817</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>97.33069030851817</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -3110,19 +3110,19 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>72.60636932813037</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>97.33069030851817</v>
       </c>
       <c r="E33" t="n">
-        <v>101.9028910972014</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>101.9028910972014</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>97.33069030851817</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3152,22 +3152,22 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>13.12250269561243</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>101.9028910972014</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>97.33069030851817</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>89.75606647841492</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
@@ -3252,7 +3252,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0.9951433092430715</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3265,22 +3265,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>97.33069030851817</v>
       </c>
       <c r="C35" t="n">
-        <v>101.9028910972014</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>101.9028910972014</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>89.75606647841492</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>64.00465730907659</v>
       </c>
       <c r="G35" t="n">
-        <v>101.9028910972014</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3310,7 +3310,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>21.72421471466623</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -3325,10 +3325,10 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>97.33069030851817</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>97.33069030851817</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -3344,25 +3344,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>101.9028910972014</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>101.9028910972014</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>89.75606647841492</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>97.33069030851817</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>97.33069030851817</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>85.72887202374281</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3401,7 +3401,7 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>97.33069030851817</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -3413,7 +3413,7 @@
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>101.9028910972014</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3438,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.9951433092430556</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>101.9028910972014</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3511,22 +3511,22 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>85.72887202374278</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>97.33069030851817</v>
       </c>
       <c r="G38" t="n">
-        <v>101.9028910972014</v>
+        <v>97.33069030851817</v>
       </c>
       <c r="H38" t="n">
-        <v>67.84313414084436</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>101.9028910972014</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>21.91293233757057</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -3568,7 +3568,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>97.33069030851817</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3593,13 +3593,13 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>85.96109627887725</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>97.33069030851817</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3626,19 +3626,19 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>6.361719200771618</v>
+        <v>13.12250269561243</v>
       </c>
       <c r="R39" t="n">
-        <v>83.39434727764332</v>
+        <v>83.97596335777126</v>
       </c>
       <c r="S39" t="n">
-        <v>101.9028910972014</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>101.9028910972014</v>
+        <v>97.33069030851817</v>
       </c>
       <c r="U39" t="n">
-        <v>101.9028910972014</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0.9951433092430715</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3748,13 +3748,13 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>89.75606647841492</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>64.00465730907659</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3784,19 +3784,19 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>21.72421471466623</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>101.9028910972014</v>
+        <v>97.33069030851817</v>
       </c>
       <c r="T41" t="n">
-        <v>101.9028910972014</v>
+        <v>97.33069030851817</v>
       </c>
       <c r="U41" t="n">
-        <v>101.9028910972014</v>
+        <v>97.33069030851817</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -3833,16 +3833,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>97.33069030851817</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>65.30559603852696</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>20.42327598521586</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3869,22 +3869,22 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>97.33069030851817</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>101.9028910972014</v>
+        <v>97.33069030851817</v>
       </c>
       <c r="V42" t="n">
-        <v>101.9028910972014</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>101.9028910972014</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>89.75606647841492</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -3909,7 +3909,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0.9951433092430715</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3979,10 +3979,10 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>97.33069030851817</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>97.33069030851817</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -4030,22 +4030,22 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>101.9028910972014</v>
+        <v>85.72887202374278</v>
       </c>
       <c r="U44" t="n">
-        <v>101.9028910972014</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>89.75606647841492</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>97.33069030851817</v>
       </c>
       <c r="Y44" t="n">
-        <v>101.9028910972014</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4058,19 +4058,19 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>77.82933620411112</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>101.9028910972014</v>
+        <v>97.33069030851817</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>101.9028910972014</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>101.9028910972014</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4100,7 +4100,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>11.92673027430385</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -4112,19 +4112,19 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>97.33069030851817</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>85.72887202374278</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>97.33069030851817</v>
       </c>
     </row>
     <row r="46">
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0.9951433092430715</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -5017,37 +5017,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>256.0211654361193</v>
+        <v>5.120423308722386</v>
       </c>
       <c r="C11" t="n">
-        <v>256.0211654361193</v>
+        <v>5.120423308722386</v>
       </c>
       <c r="D11" t="n">
-        <v>256.0211654361193</v>
+        <v>5.120423308722386</v>
       </c>
       <c r="E11" t="n">
-        <v>256.0211654361193</v>
+        <v>5.120423308722386</v>
       </c>
       <c r="F11" t="n">
-        <v>232.3036852106587</v>
+        <v>5.120423308722386</v>
       </c>
       <c r="G11" t="n">
-        <v>167.6518757570933</v>
+        <v>5.120423308722386</v>
       </c>
       <c r="H11" t="n">
-        <v>103.0000663035278</v>
+        <v>5.120423308722386</v>
       </c>
       <c r="I11" t="n">
-        <v>38.34825684996228</v>
+        <v>5.120423308722386</v>
       </c>
       <c r="J11" t="n">
         <v>5.120423308722386</v>
       </c>
       <c r="K11" t="n">
-        <v>7.050050693765803</v>
+        <v>7.050050693765789</v>
       </c>
       <c r="L11" t="n">
-        <v>46.34568595217661</v>
+        <v>46.3456859521766</v>
       </c>
       <c r="M11" t="n">
         <v>109.7109243976161</v>
@@ -5062,31 +5062,31 @@
         <v>256.0211654361193</v>
       </c>
       <c r="Q11" t="n">
-        <v>256.0211654361193</v>
+        <v>221.8724467940522</v>
       </c>
       <c r="R11" t="n">
-        <v>256.0211654361193</v>
+        <v>157.2206373404867</v>
       </c>
       <c r="S11" t="n">
-        <v>256.0211654361193</v>
+        <v>157.2206373404867</v>
       </c>
       <c r="T11" t="n">
-        <v>256.0211654361193</v>
+        <v>157.2206373404867</v>
       </c>
       <c r="U11" t="n">
-        <v>256.0211654361193</v>
+        <v>157.2206373404867</v>
       </c>
       <c r="V11" t="n">
-        <v>256.0211654361193</v>
+        <v>92.56882788692126</v>
       </c>
       <c r="W11" t="n">
-        <v>256.0211654361193</v>
+        <v>27.91701843335576</v>
       </c>
       <c r="X11" t="n">
-        <v>256.0211654361193</v>
+        <v>5.120423308722386</v>
       </c>
       <c r="Y11" t="n">
-        <v>256.0211654361193</v>
+        <v>5.120423308722386</v>
       </c>
     </row>
     <row r="12">
@@ -5096,28 +5096,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>256.0211654361193</v>
+        <v>69.77223276228787</v>
       </c>
       <c r="C12" t="n">
-        <v>256.0211654361193</v>
+        <v>69.77223276228787</v>
       </c>
       <c r="D12" t="n">
-        <v>256.0211654361193</v>
+        <v>69.77223276228787</v>
       </c>
       <c r="E12" t="n">
-        <v>256.0211654361193</v>
+        <v>69.77223276228787</v>
       </c>
       <c r="F12" t="n">
-        <v>238.0660471670568</v>
+        <v>69.77223276228787</v>
       </c>
       <c r="G12" t="n">
-        <v>173.4142377134913</v>
+        <v>5.120423308722386</v>
       </c>
       <c r="H12" t="n">
-        <v>108.7624282599259</v>
+        <v>5.120423308722386</v>
       </c>
       <c r="I12" t="n">
-        <v>44.11061880636036</v>
+        <v>5.120423308722386</v>
       </c>
       <c r="J12" t="n">
         <v>5.120423308722386</v>
@@ -5126,46 +5126,46 @@
         <v>17.9609387032273</v>
       </c>
       <c r="L12" t="n">
-        <v>22.00098250561112</v>
+        <v>81.32617714866683</v>
       </c>
       <c r="M12" t="n">
-        <v>85.36622095105065</v>
+        <v>144.6914155941064</v>
       </c>
       <c r="N12" t="n">
-        <v>148.7314593964902</v>
+        <v>208.0566540395459</v>
       </c>
       <c r="O12" t="n">
-        <v>212.0966978419297</v>
+        <v>256.0211654361193</v>
       </c>
       <c r="P12" t="n">
         <v>256.0211654361193</v>
       </c>
       <c r="Q12" t="n">
-        <v>256.0211654361193</v>
+        <v>235.0469249885657</v>
       </c>
       <c r="R12" t="n">
-        <v>256.0211654361193</v>
+        <v>170.3951155350002</v>
       </c>
       <c r="S12" t="n">
-        <v>256.0211654361193</v>
+        <v>105.7433060814347</v>
       </c>
       <c r="T12" t="n">
-        <v>256.0211654361193</v>
+        <v>105.7433060814347</v>
       </c>
       <c r="U12" t="n">
-        <v>256.0211654361193</v>
+        <v>105.7433060814347</v>
       </c>
       <c r="V12" t="n">
-        <v>256.0211654361193</v>
+        <v>69.77223276228787</v>
       </c>
       <c r="W12" t="n">
-        <v>256.0211654361193</v>
+        <v>69.77223276228787</v>
       </c>
       <c r="X12" t="n">
-        <v>256.0211654361193</v>
+        <v>69.77223276228787</v>
       </c>
       <c r="Y12" t="n">
-        <v>256.0211654361193</v>
+        <v>69.77223276228787</v>
       </c>
     </row>
     <row r="13">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>256.0211654361193</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="C14" t="n">
-        <v>256.0211654361193</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="D14" t="n">
-        <v>256.0211654361193</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="E14" t="n">
-        <v>256.0211654361193</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="F14" t="n">
-        <v>199.0758516694189</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="G14" t="n">
-        <v>134.4240422158534</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="H14" t="n">
-        <v>69.77223276228787</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="I14" t="n">
-        <v>5.120423308722386</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="J14" t="n">
-        <v>5.120423308722386</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="K14" t="n">
-        <v>7.050050693765789</v>
+        <v>21.18357364821451</v>
       </c>
       <c r="L14" t="n">
-        <v>46.3456859521766</v>
+        <v>75.16870670940374</v>
       </c>
       <c r="M14" t="n">
-        <v>109.7109243976161</v>
+        <v>166.9070065056148</v>
       </c>
       <c r="N14" t="n">
-        <v>173.0761628430557</v>
+        <v>258.6453063018261</v>
       </c>
       <c r="O14" t="n">
-        <v>236.4414012884952</v>
+        <v>337.6943058037292</v>
       </c>
       <c r="P14" t="n">
-        <v>256.0211654361193</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="Q14" t="n">
-        <v>256.0211654361193</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="R14" t="n">
-        <v>256.0211654361193</v>
+        <v>288.2160725767712</v>
       </c>
       <c r="S14" t="n">
-        <v>256.0211654361193</v>
+        <v>288.2160725767712</v>
       </c>
       <c r="T14" t="n">
-        <v>256.0211654361193</v>
+        <v>288.2160725767712</v>
       </c>
       <c r="U14" t="n">
-        <v>256.0211654361193</v>
+        <v>194.6151136988902</v>
       </c>
       <c r="V14" t="n">
-        <v>256.0211654361193</v>
+        <v>101.0141548210092</v>
       </c>
       <c r="W14" t="n">
-        <v>256.0211654361193</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="X14" t="n">
-        <v>256.0211654361193</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="Y14" t="n">
-        <v>256.0211654361193</v>
+        <v>7.413195943128176</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>256.0211654361193</v>
+        <v>83.54654889215952</v>
       </c>
       <c r="C15" t="n">
-        <v>256.0211654361193</v>
+        <v>83.54654889215952</v>
       </c>
       <c r="D15" t="n">
-        <v>256.0211654361193</v>
+        <v>83.54654889215952</v>
       </c>
       <c r="E15" t="n">
-        <v>256.0211654361193</v>
+        <v>83.54654889215952</v>
       </c>
       <c r="F15" t="n">
-        <v>238.0660471670568</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="G15" t="n">
-        <v>173.4142377134913</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="H15" t="n">
-        <v>108.7624282599259</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="I15" t="n">
-        <v>44.11061880636036</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="J15" t="n">
-        <v>5.120423308722386</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="K15" t="n">
-        <v>17.9609387032273</v>
+        <v>22.11425555195332</v>
       </c>
       <c r="L15" t="n">
-        <v>81.32617714866683</v>
+        <v>96.51643516483841</v>
       </c>
       <c r="M15" t="n">
-        <v>144.6914155941064</v>
+        <v>188.2547349610496</v>
       </c>
       <c r="N15" t="n">
-        <v>148.7314593964902</v>
+        <v>279.9930347572608</v>
       </c>
       <c r="O15" t="n">
-        <v>212.0966978419297</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="P15" t="n">
-        <v>256.0211654361193</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="Q15" t="n">
-        <v>256.0211654361193</v>
+        <v>356.1721822163859</v>
       </c>
       <c r="R15" t="n">
-        <v>256.0211654361193</v>
+        <v>270.7484666479215</v>
       </c>
       <c r="S15" t="n">
-        <v>256.0211654361193</v>
+        <v>177.1475077700405</v>
       </c>
       <c r="T15" t="n">
-        <v>256.0211654361193</v>
+        <v>177.1475077700405</v>
       </c>
       <c r="U15" t="n">
-        <v>256.0211654361193</v>
+        <v>83.54654889215952</v>
       </c>
       <c r="V15" t="n">
-        <v>256.0211654361193</v>
+        <v>83.54654889215952</v>
       </c>
       <c r="W15" t="n">
-        <v>256.0211654361193</v>
+        <v>83.54654889215952</v>
       </c>
       <c r="X15" t="n">
-        <v>256.0211654361193</v>
+        <v>83.54654889215952</v>
       </c>
       <c r="Y15" t="n">
-        <v>256.0211654361193</v>
+        <v>83.54654889215952</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>5.120423308722386</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="C16" t="n">
-        <v>5.120423308722386</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="D16" t="n">
-        <v>5.120423308722386</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="E16" t="n">
-        <v>5.120423308722386</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="F16" t="n">
-        <v>5.120423308722386</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="G16" t="n">
-        <v>5.120423308722386</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="H16" t="n">
-        <v>5.120423308722386</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="I16" t="n">
-        <v>5.120423308722386</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="J16" t="n">
-        <v>5.120423308722386</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="K16" t="n">
-        <v>5.120423308722386</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="L16" t="n">
-        <v>5.120423308722386</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="M16" t="n">
-        <v>5.120423308722386</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="N16" t="n">
-        <v>5.120423308722386</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="O16" t="n">
-        <v>5.120423308722386</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="P16" t="n">
-        <v>5.120423308722386</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="Q16" t="n">
-        <v>5.120423308722386</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="R16" t="n">
-        <v>5.120423308722386</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="S16" t="n">
-        <v>5.120423308722386</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="T16" t="n">
-        <v>5.120423308722386</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="U16" t="n">
-        <v>5.120423308722386</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="V16" t="n">
-        <v>5.120423308722386</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="W16" t="n">
-        <v>5.120423308722386</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="X16" t="n">
-        <v>5.120423308722386</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="Y16" t="n">
-        <v>5.120423308722386</v>
+        <v>7.413195943128176</v>
       </c>
     </row>
     <row r="17">
@@ -5491,16 +5491,16 @@
         </is>
       </c>
       <c r="B17" t="n">
+        <v>277.0588382785278</v>
+      </c>
+      <c r="C17" t="n">
+        <v>277.0588382785278</v>
+      </c>
+      <c r="D17" t="n">
+        <v>277.0588382785278</v>
+      </c>
+      <c r="E17" t="n">
         <v>194.6151136988902</v>
-      </c>
-      <c r="C17" t="n">
-        <v>194.6151136988902</v>
-      </c>
-      <c r="D17" t="n">
-        <v>194.6151136988902</v>
-      </c>
-      <c r="E17" t="n">
-        <v>101.0141548210092</v>
       </c>
       <c r="F17" t="n">
         <v>101.0141548210092</v>
@@ -5509,7 +5509,7 @@
         <v>101.0141548210092</v>
       </c>
       <c r="H17" t="n">
-        <v>7.413195943128176</v>
+        <v>101.0141548210092</v>
       </c>
       <c r="I17" t="n">
         <v>7.413195943128176</v>
@@ -5518,10 +5518,10 @@
         <v>7.413195943128176</v>
       </c>
       <c r="K17" t="n">
-        <v>21.18357364821441</v>
+        <v>21.18357364821451</v>
       </c>
       <c r="L17" t="n">
-        <v>75.16870670940366</v>
+        <v>75.16870670940374</v>
       </c>
       <c r="M17" t="n">
         <v>166.9070065056148</v>
@@ -5570,19 +5570,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>7.413195943128176</v>
+        <v>101.0141548210092</v>
       </c>
       <c r="C18" t="n">
-        <v>7.413195943128176</v>
+        <v>101.0141548210092</v>
       </c>
       <c r="D18" t="n">
-        <v>7.413195943128176</v>
+        <v>101.0141548210092</v>
       </c>
       <c r="E18" t="n">
-        <v>7.413195943128176</v>
+        <v>101.0141548210092</v>
       </c>
       <c r="F18" t="n">
-        <v>7.413195943128176</v>
+        <v>101.0141548210092</v>
       </c>
       <c r="G18" t="n">
         <v>7.413195943128176</v>
@@ -5609,7 +5609,7 @@
         <v>286.1748768573191</v>
       </c>
       <c r="O18" t="n">
-        <v>317.2247932514005</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="P18" t="n">
         <v>370.6597971564088</v>
@@ -5618,28 +5618,28 @@
         <v>356.1721822163859</v>
       </c>
       <c r="R18" t="n">
-        <v>270.7484666479215</v>
+        <v>356.1721822163859</v>
       </c>
       <c r="S18" t="n">
-        <v>177.1475077700405</v>
+        <v>262.5712233385049</v>
       </c>
       <c r="T18" t="n">
-        <v>83.54654889215952</v>
+        <v>262.5712233385049</v>
       </c>
       <c r="U18" t="n">
-        <v>7.413195943128176</v>
+        <v>168.9702644606239</v>
       </c>
       <c r="V18" t="n">
-        <v>7.413195943128176</v>
+        <v>101.0141548210092</v>
       </c>
       <c r="W18" t="n">
-        <v>7.413195943128176</v>
+        <v>101.0141548210092</v>
       </c>
       <c r="X18" t="n">
-        <v>7.413195943128176</v>
+        <v>101.0141548210092</v>
       </c>
       <c r="Y18" t="n">
-        <v>7.413195943128176</v>
+        <v>101.0141548210092</v>
       </c>
     </row>
     <row r="19">
@@ -5734,13 +5734,13 @@
         <v>101.0141548210092</v>
       </c>
       <c r="D20" t="n">
-        <v>7.413195943128176</v>
+        <v>101.0141548210092</v>
       </c>
       <c r="E20" t="n">
-        <v>7.413195943128176</v>
+        <v>101.0141548210092</v>
       </c>
       <c r="F20" t="n">
-        <v>7.413195943128176</v>
+        <v>101.0141548210092</v>
       </c>
       <c r="G20" t="n">
         <v>7.413195943128176</v>
@@ -5755,7 +5755,7 @@
         <v>7.413195943128176</v>
       </c>
       <c r="K20" t="n">
-        <v>21.18357364821451</v>
+        <v>21.18357364821441</v>
       </c>
       <c r="L20" t="n">
         <v>75.16870670940366</v>
@@ -5773,28 +5773,28 @@
         <v>370.6597971564088</v>
       </c>
       <c r="Q20" t="n">
-        <v>346.7673010107287</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="R20" t="n">
+        <v>370.6597971564088</v>
+      </c>
+      <c r="S20" t="n">
+        <v>370.6597971564088</v>
+      </c>
+      <c r="T20" t="n">
         <v>288.2160725767712</v>
       </c>
-      <c r="S20" t="n">
+      <c r="U20" t="n">
         <v>288.2160725767712</v>
-      </c>
-      <c r="T20" t="n">
-        <v>194.6151136988902</v>
-      </c>
-      <c r="U20" t="n">
-        <v>194.6151136988902</v>
       </c>
       <c r="V20" t="n">
         <v>194.6151136988902</v>
       </c>
       <c r="W20" t="n">
-        <v>194.6151136988902</v>
+        <v>101.0141548210092</v>
       </c>
       <c r="X20" t="n">
-        <v>194.6151136988902</v>
+        <v>101.0141548210092</v>
       </c>
       <c r="Y20" t="n">
         <v>101.0141548210092</v>
@@ -5810,13 +5810,13 @@
         <v>194.6151136988902</v>
       </c>
       <c r="C21" t="n">
+        <v>194.6151136988902</v>
+      </c>
+      <c r="D21" t="n">
+        <v>194.6151136988902</v>
+      </c>
+      <c r="E21" t="n">
         <v>101.0141548210092</v>
-      </c>
-      <c r="D21" t="n">
-        <v>7.413195943128176</v>
-      </c>
-      <c r="E21" t="n">
-        <v>7.413195943128176</v>
       </c>
       <c r="F21" t="n">
         <v>7.413195943128176</v>
@@ -5840,10 +5840,10 @@
         <v>102.6982772648967</v>
       </c>
       <c r="M21" t="n">
-        <v>194.4365770611079</v>
+        <v>134.8197310560413</v>
       </c>
       <c r="N21" t="n">
-        <v>286.1748768573191</v>
+        <v>226.5580308522524</v>
       </c>
       <c r="O21" t="n">
         <v>317.2247932514005</v>
@@ -5861,7 +5861,7 @@
         <v>370.6597971564088</v>
       </c>
       <c r="T21" t="n">
-        <v>288.2160725767712</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="U21" t="n">
         <v>288.2160725767712</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>370.6597971564088</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="C22" t="n">
-        <v>370.6597971564088</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="D22" t="n">
-        <v>370.6597971564088</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="E22" t="n">
-        <v>370.6597971564088</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="F22" t="n">
-        <v>370.6597971564088</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="G22" t="n">
-        <v>370.6597971564088</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="H22" t="n">
-        <v>370.6597971564088</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="I22" t="n">
-        <v>370.6597971564088</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="J22" t="n">
-        <v>370.6597971564088</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="K22" t="n">
-        <v>370.6597971564088</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="L22" t="n">
-        <v>370.6597971564088</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="M22" t="n">
-        <v>370.6597971564088</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="N22" t="n">
-        <v>370.6597971564088</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="O22" t="n">
-        <v>370.6597971564088</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="P22" t="n">
-        <v>370.6597971564088</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="Q22" t="n">
-        <v>370.6597971564088</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="R22" t="n">
-        <v>370.6597971564088</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="S22" t="n">
-        <v>370.6597971564088</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="T22" t="n">
-        <v>370.6597971564088</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="U22" t="n">
-        <v>370.6597971564088</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="V22" t="n">
-        <v>370.6597971564088</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="W22" t="n">
-        <v>370.6597971564088</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="X22" t="n">
-        <v>370.6597971564088</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="Y22" t="n">
-        <v>370.6597971564088</v>
+        <v>7.413195943128176</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>214.0166577467688</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="C23" t="n">
-        <v>111.0844445172725</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="D23" t="n">
-        <v>111.0844445172725</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="E23" t="n">
-        <v>111.0844445172725</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="F23" t="n">
-        <v>111.0844445172725</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="G23" t="n">
-        <v>111.0844445172725</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="H23" t="n">
-        <v>8.152231287776111</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="I23" t="n">
-        <v>8.152231287776111</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="J23" t="n">
-        <v>8.152231287776111</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="K23" t="n">
-        <v>26.37736235377227</v>
+        <v>23.80676326264302</v>
       </c>
       <c r="L23" t="n">
-        <v>85.88901087540793</v>
+        <v>80.5831338542132</v>
       </c>
       <c r="M23" t="n">
-        <v>183.7766239668941</v>
+        <v>175.4272232168677</v>
       </c>
       <c r="N23" t="n">
-        <v>284.6604861531235</v>
+        <v>271.7846066223007</v>
       </c>
       <c r="O23" t="n">
-        <v>369.6100650431185</v>
+        <v>353.8137694399333</v>
       </c>
       <c r="P23" t="n">
-        <v>407.6115643888055</v>
+        <v>389.3227612340727</v>
       </c>
       <c r="Q23" t="n">
-        <v>407.6115643888055</v>
+        <v>389.3227612340727</v>
       </c>
       <c r="R23" t="n">
-        <v>407.6115643888055</v>
+        <v>291.0089326396099</v>
       </c>
       <c r="S23" t="n">
-        <v>407.6115643888055</v>
+        <v>192.6951040451471</v>
       </c>
       <c r="T23" t="n">
-        <v>407.6115643888055</v>
+        <v>94.3812754506843</v>
       </c>
       <c r="U23" t="n">
-        <v>316.9488709762651</v>
+        <v>94.3812754506843</v>
       </c>
       <c r="V23" t="n">
-        <v>316.9488709762651</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="W23" t="n">
-        <v>316.9488709762651</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="X23" t="n">
-        <v>214.0166577467688</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="Y23" t="n">
-        <v>214.0166577467688</v>
+        <v>7.786455224681454</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>8.152231287776111</v>
+        <v>94.3812754506843</v>
       </c>
       <c r="C24" t="n">
-        <v>8.152231287776111</v>
+        <v>94.3812754506843</v>
       </c>
       <c r="D24" t="n">
-        <v>8.152231287776111</v>
+        <v>94.3812754506843</v>
       </c>
       <c r="E24" t="n">
-        <v>8.152231287776111</v>
+        <v>94.3812754506843</v>
       </c>
       <c r="F24" t="n">
-        <v>8.152231287776111</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="G24" t="n">
-        <v>8.152231287776111</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="H24" t="n">
-        <v>8.152231287776111</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="I24" t="n">
-        <v>8.152231287776111</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="J24" t="n">
-        <v>8.152231287776111</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="K24" t="n">
-        <v>8.152231287776111</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="L24" t="n">
-        <v>53.70582787517297</v>
+        <v>84.24346269643985</v>
       </c>
       <c r="M24" t="n">
-        <v>154.5896900614023</v>
+        <v>180.6008461018728</v>
       </c>
       <c r="N24" t="n">
-        <v>255.4735522476317</v>
+        <v>276.9582295073058</v>
       </c>
       <c r="O24" t="n">
-        <v>350.5984854083555</v>
+        <v>334.0806046107606</v>
       </c>
       <c r="P24" t="n">
-        <v>407.6115643888055</v>
+        <v>389.3227612340727</v>
       </c>
       <c r="Q24" t="n">
-        <v>407.6115643888055</v>
+        <v>389.3227612340727</v>
       </c>
       <c r="R24" t="n">
-        <v>407.6115643888055</v>
+        <v>389.3227612340727</v>
       </c>
       <c r="S24" t="n">
-        <v>407.6115643888055</v>
+        <v>291.0089326396099</v>
       </c>
       <c r="T24" t="n">
-        <v>407.6115643888055</v>
+        <v>192.6951040451471</v>
       </c>
       <c r="U24" t="n">
-        <v>407.6115643888055</v>
+        <v>94.3812754506843</v>
       </c>
       <c r="V24" t="n">
-        <v>316.9488709762651</v>
+        <v>94.3812754506843</v>
       </c>
       <c r="W24" t="n">
-        <v>214.0166577467688</v>
+        <v>94.3812754506843</v>
       </c>
       <c r="X24" t="n">
-        <v>111.0844445172725</v>
+        <v>94.3812754506843</v>
       </c>
       <c r="Y24" t="n">
-        <v>111.0844445172725</v>
+        <v>94.3812754506843</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>8.152231287776111</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="C25" t="n">
-        <v>8.152231287776111</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="D25" t="n">
-        <v>8.152231287776111</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="E25" t="n">
-        <v>8.152231287776111</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="F25" t="n">
-        <v>8.152231287776111</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="G25" t="n">
-        <v>8.152231287776111</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="H25" t="n">
-        <v>8.152231287776111</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="I25" t="n">
-        <v>8.152231287776111</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="J25" t="n">
-        <v>8.152231287776111</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="K25" t="n">
-        <v>8.152231287776111</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="L25" t="n">
-        <v>8.152231287776111</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="M25" t="n">
-        <v>8.152231287776111</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="N25" t="n">
-        <v>9.157426549637799</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="O25" t="n">
-        <v>9.157426549637799</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="P25" t="n">
-        <v>9.157426549637799</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="Q25" t="n">
-        <v>9.157426549637799</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="R25" t="n">
-        <v>9.157426549637799</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="S25" t="n">
-        <v>8.152231287776111</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="T25" t="n">
-        <v>8.152231287776111</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="U25" t="n">
-        <v>8.152231287776111</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="V25" t="n">
-        <v>8.152231287776111</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="W25" t="n">
-        <v>8.152231287776111</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="X25" t="n">
-        <v>8.152231287776111</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="Y25" t="n">
-        <v>8.152231287776111</v>
+        <v>7.786455224681454</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>407.6115643888055</v>
+        <v>291.0089326396099</v>
       </c>
       <c r="C26" t="n">
-        <v>407.6115643888055</v>
+        <v>192.6951040451471</v>
       </c>
       <c r="D26" t="n">
-        <v>304.6793511593091</v>
+        <v>94.3812754506843</v>
       </c>
       <c r="E26" t="n">
-        <v>214.0166577467688</v>
+        <v>94.3812754506843</v>
       </c>
       <c r="F26" t="n">
-        <v>111.0844445172725</v>
+        <v>94.3812754506843</v>
       </c>
       <c r="G26" t="n">
-        <v>8.152231287776111</v>
+        <v>94.3812754506843</v>
       </c>
       <c r="H26" t="n">
-        <v>8.152231287776111</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="I26" t="n">
-        <v>8.152231287776111</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="J26" t="n">
-        <v>8.152231287776111</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="K26" t="n">
-        <v>26.37736235377224</v>
+        <v>23.80676326264313</v>
       </c>
       <c r="L26" t="n">
-        <v>85.88901087540793</v>
+        <v>80.58313385421317</v>
       </c>
       <c r="M26" t="n">
-        <v>183.7766239668941</v>
+        <v>175.4272232168677</v>
       </c>
       <c r="N26" t="n">
-        <v>284.6604861531235</v>
+        <v>271.7846066223007</v>
       </c>
       <c r="O26" t="n">
-        <v>369.6100650431185</v>
+        <v>353.8137694399333</v>
       </c>
       <c r="P26" t="n">
-        <v>407.6115643888055</v>
+        <v>389.3227612340727</v>
       </c>
       <c r="Q26" t="n">
-        <v>407.6115643888055</v>
+        <v>389.3227612340727</v>
       </c>
       <c r="R26" t="n">
-        <v>407.6115643888055</v>
+        <v>389.3227612340727</v>
       </c>
       <c r="S26" t="n">
-        <v>407.6115643888055</v>
+        <v>389.3227612340727</v>
       </c>
       <c r="T26" t="n">
-        <v>407.6115643888055</v>
+        <v>291.0089326396099</v>
       </c>
       <c r="U26" t="n">
-        <v>407.6115643888055</v>
+        <v>291.0089326396099</v>
       </c>
       <c r="V26" t="n">
-        <v>407.6115643888055</v>
+        <v>291.0089326396099</v>
       </c>
       <c r="W26" t="n">
-        <v>407.6115643888055</v>
+        <v>291.0089326396099</v>
       </c>
       <c r="X26" t="n">
-        <v>407.6115643888055</v>
+        <v>291.0089326396099</v>
       </c>
       <c r="Y26" t="n">
-        <v>407.6115643888055</v>
+        <v>291.0089326396099</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>214.0166577467688</v>
+        <v>9.557070038794137</v>
       </c>
       <c r="C27" t="n">
-        <v>214.0166577467688</v>
+        <v>9.557070038794137</v>
       </c>
       <c r="D27" t="n">
-        <v>214.0166577467688</v>
+        <v>9.557070038794137</v>
       </c>
       <c r="E27" t="n">
-        <v>111.0844445172725</v>
+        <v>9.557070038794137</v>
       </c>
       <c r="F27" t="n">
-        <v>8.152231287776111</v>
+        <v>9.557070038794137</v>
       </c>
       <c r="G27" t="n">
-        <v>8.152231287776111</v>
+        <v>9.557070038794137</v>
       </c>
       <c r="H27" t="n">
-        <v>8.152231287776111</v>
+        <v>9.557070038794137</v>
       </c>
       <c r="I27" t="n">
-        <v>8.152231287776111</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="J27" t="n">
-        <v>8.152231287776111</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="K27" t="n">
-        <v>8.152231287776111</v>
+        <v>30.1975378704428</v>
       </c>
       <c r="L27" t="n">
-        <v>86.62287078879896</v>
+        <v>106.6545453422012</v>
       </c>
       <c r="M27" t="n">
-        <v>187.5067329750283</v>
+        <v>203.0119287476342</v>
       </c>
       <c r="N27" t="n">
-        <v>288.3905951612577</v>
+        <v>241.1621858766909</v>
       </c>
       <c r="O27" t="n">
-        <v>350.5984854083555</v>
+        <v>334.0806046107606</v>
       </c>
       <c r="P27" t="n">
-        <v>407.6115643888055</v>
+        <v>389.3227612340727</v>
       </c>
       <c r="Q27" t="n">
-        <v>407.6115643888055</v>
+        <v>389.3227612340727</v>
       </c>
       <c r="R27" t="n">
-        <v>407.6115643888055</v>
+        <v>304.4985558221825</v>
       </c>
       <c r="S27" t="n">
-        <v>407.6115643888055</v>
+        <v>206.1847272277197</v>
       </c>
       <c r="T27" t="n">
-        <v>407.6115643888055</v>
+        <v>107.8708986332569</v>
       </c>
       <c r="U27" t="n">
-        <v>304.6793511593091</v>
+        <v>107.8708986332569</v>
       </c>
       <c r="V27" t="n">
-        <v>304.6793511593091</v>
+        <v>107.8708986332569</v>
       </c>
       <c r="W27" t="n">
-        <v>214.0166577467688</v>
+        <v>107.8708986332569</v>
       </c>
       <c r="X27" t="n">
-        <v>214.0166577467688</v>
+        <v>107.8708986332569</v>
       </c>
       <c r="Y27" t="n">
-        <v>214.0166577467688</v>
+        <v>107.8708986332569</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>8.152231287776111</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="C28" t="n">
-        <v>8.152231287776111</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="D28" t="n">
-        <v>8.152231287776111</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="E28" t="n">
-        <v>8.152231287776111</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="F28" t="n">
-        <v>8.152231287776111</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="G28" t="n">
-        <v>8.152231287776111</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="H28" t="n">
-        <v>8.152231287776111</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="I28" t="n">
-        <v>8.152231287776111</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="J28" t="n">
-        <v>8.152231287776111</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="K28" t="n">
-        <v>8.152231287776111</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="L28" t="n">
-        <v>8.152231287776111</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="M28" t="n">
-        <v>8.152231287776111</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="N28" t="n">
-        <v>9.157426549637799</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="O28" t="n">
-        <v>9.157426549637799</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="P28" t="n">
-        <v>9.157426549637799</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="Q28" t="n">
-        <v>8.152231287776111</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="R28" t="n">
-        <v>8.152231287776111</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="S28" t="n">
-        <v>8.152231287776111</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="T28" t="n">
-        <v>8.152231287776111</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="U28" t="n">
-        <v>8.152231287776111</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="V28" t="n">
-        <v>8.152231287776111</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="W28" t="n">
-        <v>8.152231287776111</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="X28" t="n">
-        <v>8.152231287776111</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="Y28" t="n">
-        <v>8.152231287776111</v>
+        <v>7.786455224681454</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>214.0166577467688</v>
+        <v>192.6951040451471</v>
       </c>
       <c r="C29" t="n">
-        <v>214.0166577467688</v>
+        <v>192.6951040451471</v>
       </c>
       <c r="D29" t="n">
-        <v>214.0166577467688</v>
+        <v>106.1002838191443</v>
       </c>
       <c r="E29" t="n">
-        <v>214.0166577467688</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="F29" t="n">
-        <v>214.0166577467688</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="G29" t="n">
-        <v>111.0844445172725</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="H29" t="n">
-        <v>111.0844445172725</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="I29" t="n">
-        <v>8.152231287776111</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="J29" t="n">
-        <v>8.152231287776111</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="K29" t="n">
-        <v>26.37736235377213</v>
+        <v>23.80676326264302</v>
       </c>
       <c r="L29" t="n">
-        <v>85.88901087540796</v>
+        <v>80.5831338542132</v>
       </c>
       <c r="M29" t="n">
-        <v>183.7766239668941</v>
+        <v>175.4272232168677</v>
       </c>
       <c r="N29" t="n">
-        <v>284.6604861531235</v>
+        <v>271.7846066223007</v>
       </c>
       <c r="O29" t="n">
-        <v>369.6100650431185</v>
+        <v>353.8137694399333</v>
       </c>
       <c r="P29" t="n">
-        <v>407.6115643888055</v>
+        <v>389.3227612340727</v>
       </c>
       <c r="Q29" t="n">
-        <v>407.6115643888055</v>
+        <v>389.3227612340727</v>
       </c>
       <c r="R29" t="n">
-        <v>316.9488709762651</v>
+        <v>389.3227612340727</v>
       </c>
       <c r="S29" t="n">
-        <v>316.9488709762651</v>
+        <v>389.3227612340727</v>
       </c>
       <c r="T29" t="n">
-        <v>316.9488709762651</v>
+        <v>389.3227612340727</v>
       </c>
       <c r="U29" t="n">
-        <v>316.9488709762651</v>
+        <v>389.3227612340727</v>
       </c>
       <c r="V29" t="n">
-        <v>316.9488709762651</v>
+        <v>389.3227612340727</v>
       </c>
       <c r="W29" t="n">
-        <v>316.9488709762651</v>
+        <v>291.0089326396099</v>
       </c>
       <c r="X29" t="n">
-        <v>214.0166577467688</v>
+        <v>192.6951040451471</v>
       </c>
       <c r="Y29" t="n">
-        <v>214.0166577467688</v>
+        <v>192.6951040451471</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>8.152231287776111</v>
+        <v>206.1847272277197</v>
       </c>
       <c r="C30" t="n">
-        <v>8.152231287776111</v>
+        <v>206.1847272277197</v>
       </c>
       <c r="D30" t="n">
-        <v>8.152231287776111</v>
+        <v>107.8708986332569</v>
       </c>
       <c r="E30" t="n">
-        <v>8.152231287776111</v>
+        <v>107.8708986332569</v>
       </c>
       <c r="F30" t="n">
-        <v>8.152231287776111</v>
+        <v>107.8708986332569</v>
       </c>
       <c r="G30" t="n">
-        <v>8.152231287776111</v>
+        <v>107.8708986332569</v>
       </c>
       <c r="H30" t="n">
-        <v>8.152231287776111</v>
+        <v>9.557070038794137</v>
       </c>
       <c r="I30" t="n">
-        <v>8.152231287776111</v>
+        <v>9.557070038794137</v>
       </c>
       <c r="J30" t="n">
-        <v>8.152231287776111</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="K30" t="n">
-        <v>8.152231287776111</v>
+        <v>30.1975378704428</v>
       </c>
       <c r="L30" t="n">
-        <v>86.62287078879896</v>
+        <v>48.44741906582493</v>
       </c>
       <c r="M30" t="n">
-        <v>154.5896900614023</v>
+        <v>144.8048024712579</v>
       </c>
       <c r="N30" t="n">
-        <v>255.4735522476317</v>
+        <v>241.1621858766909</v>
       </c>
       <c r="O30" t="n">
-        <v>350.5984854083555</v>
+        <v>334.0806046107606</v>
       </c>
       <c r="P30" t="n">
-        <v>407.6115643888055</v>
+        <v>389.3227612340727</v>
       </c>
       <c r="Q30" t="n">
-        <v>407.6115643888055</v>
+        <v>389.3227612340727</v>
       </c>
       <c r="R30" t="n">
-        <v>407.6115643888055</v>
+        <v>304.4985558221825</v>
       </c>
       <c r="S30" t="n">
-        <v>407.6115643888055</v>
+        <v>206.1847272277197</v>
       </c>
       <c r="T30" t="n">
-        <v>407.6115643888055</v>
+        <v>206.1847272277197</v>
       </c>
       <c r="U30" t="n">
-        <v>304.6793511593091</v>
+        <v>206.1847272277197</v>
       </c>
       <c r="V30" t="n">
-        <v>214.0166577467688</v>
+        <v>206.1847272277197</v>
       </c>
       <c r="W30" t="n">
-        <v>111.0844445172725</v>
+        <v>206.1847272277197</v>
       </c>
       <c r="X30" t="n">
-        <v>111.0844445172725</v>
+        <v>206.1847272277197</v>
       </c>
       <c r="Y30" t="n">
-        <v>111.0844445172725</v>
+        <v>206.1847272277197</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>407.6115643888055</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="C31" t="n">
-        <v>407.6115643888055</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="D31" t="n">
-        <v>407.6115643888055</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="E31" t="n">
-        <v>407.6115643888055</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="F31" t="n">
-        <v>407.6115643888055</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="G31" t="n">
-        <v>407.6115643888055</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="H31" t="n">
-        <v>407.6115643888055</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="I31" t="n">
-        <v>406.6063691269438</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="J31" t="n">
-        <v>406.6063691269438</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="K31" t="n">
-        <v>406.6063691269438</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="L31" t="n">
-        <v>406.6063691269438</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="M31" t="n">
-        <v>406.6063691269438</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="N31" t="n">
-        <v>407.6115643888055</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="O31" t="n">
-        <v>407.6115643888055</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="P31" t="n">
-        <v>407.6115643888055</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="Q31" t="n">
-        <v>407.6115643888055</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="R31" t="n">
-        <v>407.6115643888055</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="S31" t="n">
-        <v>407.6115643888055</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="T31" t="n">
-        <v>407.6115643888055</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="U31" t="n">
-        <v>407.6115643888055</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="V31" t="n">
-        <v>407.6115643888055</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="W31" t="n">
-        <v>407.6115643888055</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="X31" t="n">
-        <v>407.6115643888055</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="Y31" t="n">
-        <v>407.6115643888055</v>
+        <v>7.786455224681454</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>111.0844445172725</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="C32" t="n">
-        <v>111.0844445172725</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="D32" t="n">
-        <v>8.152231287776111</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="E32" t="n">
-        <v>8.152231287776111</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="F32" t="n">
-        <v>8.152231287776111</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="G32" t="n">
-        <v>8.152231287776111</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="H32" t="n">
-        <v>8.152231287776111</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="I32" t="n">
-        <v>8.152231287776111</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="J32" t="n">
-        <v>8.152231287776111</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="K32" t="n">
-        <v>26.37736235377227</v>
+        <v>23.80676326264296</v>
       </c>
       <c r="L32" t="n">
-        <v>85.88901087540793</v>
+        <v>80.58313385421309</v>
       </c>
       <c r="M32" t="n">
-        <v>183.7766239668941</v>
+        <v>175.4272232168677</v>
       </c>
       <c r="N32" t="n">
-        <v>284.6604861531235</v>
+        <v>271.7846066223007</v>
       </c>
       <c r="O32" t="n">
-        <v>369.6100650431185</v>
+        <v>353.8137694399333</v>
       </c>
       <c r="P32" t="n">
-        <v>407.6115643888055</v>
+        <v>389.3227612340727</v>
       </c>
       <c r="Q32" t="n">
-        <v>407.6115643888055</v>
+        <v>389.3227612340727</v>
       </c>
       <c r="R32" t="n">
-        <v>407.6115643888055</v>
+        <v>389.3227612340727</v>
       </c>
       <c r="S32" t="n">
-        <v>407.6115643888055</v>
+        <v>389.3227612340727</v>
       </c>
       <c r="T32" t="n">
-        <v>316.9488709762651</v>
+        <v>302.7279410080699</v>
       </c>
       <c r="U32" t="n">
-        <v>214.0166577467688</v>
+        <v>204.4141124136071</v>
       </c>
       <c r="V32" t="n">
-        <v>111.0844445172725</v>
+        <v>106.1002838191443</v>
       </c>
       <c r="W32" t="n">
-        <v>111.0844445172725</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="X32" t="n">
-        <v>111.0844445172725</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="Y32" t="n">
-        <v>111.0844445172725</v>
+        <v>7.786455224681454</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>214.0166577467688</v>
+        <v>277.7538794117186</v>
       </c>
       <c r="C33" t="n">
-        <v>214.0166577467688</v>
+        <v>204.4141124136071</v>
       </c>
       <c r="D33" t="n">
-        <v>214.0166577467688</v>
+        <v>106.1002838191443</v>
       </c>
       <c r="E33" t="n">
-        <v>111.0844445172725</v>
+        <v>106.1002838191443</v>
       </c>
       <c r="F33" t="n">
-        <v>8.152231287776111</v>
+        <v>106.1002838191443</v>
       </c>
       <c r="G33" t="n">
-        <v>8.152231287776111</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="H33" t="n">
-        <v>8.152231287776111</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="I33" t="n">
-        <v>8.152231287776111</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="J33" t="n">
-        <v>8.152231287776111</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="K33" t="n">
-        <v>8.152231287776111</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="L33" t="n">
-        <v>86.62287078879896</v>
+        <v>84.24346269643985</v>
       </c>
       <c r="M33" t="n">
-        <v>187.5067329750283</v>
+        <v>144.8048024712579</v>
       </c>
       <c r="N33" t="n">
-        <v>288.3905951612577</v>
+        <v>241.1621858766909</v>
       </c>
       <c r="O33" t="n">
-        <v>383.5155283219815</v>
+        <v>334.0806046107606</v>
       </c>
       <c r="P33" t="n">
-        <v>407.6115643888055</v>
+        <v>389.3227612340727</v>
       </c>
       <c r="Q33" t="n">
-        <v>407.6115643888055</v>
+        <v>376.0677080061814</v>
       </c>
       <c r="R33" t="n">
-        <v>407.6115643888055</v>
+        <v>376.0677080061814</v>
       </c>
       <c r="S33" t="n">
-        <v>304.6793511593091</v>
+        <v>376.0677080061814</v>
       </c>
       <c r="T33" t="n">
-        <v>304.6793511593091</v>
+        <v>277.7538794117186</v>
       </c>
       <c r="U33" t="n">
-        <v>304.6793511593091</v>
+        <v>277.7538794117186</v>
       </c>
       <c r="V33" t="n">
-        <v>214.0166577467688</v>
+        <v>277.7538794117186</v>
       </c>
       <c r="W33" t="n">
-        <v>214.0166577467688</v>
+        <v>277.7538794117186</v>
       </c>
       <c r="X33" t="n">
-        <v>214.0166577467688</v>
+        <v>277.7538794117186</v>
       </c>
       <c r="Y33" t="n">
-        <v>214.0166577467688</v>
+        <v>277.7538794117186</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>8.152231287776111</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="C34" t="n">
-        <v>8.152231287776111</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="D34" t="n">
-        <v>8.152231287776111</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="E34" t="n">
-        <v>8.152231287776111</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="F34" t="n">
-        <v>8.152231287776111</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="G34" t="n">
-        <v>8.152231287776111</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="H34" t="n">
-        <v>8.152231287776111</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="I34" t="n">
-        <v>8.152231287776111</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="J34" t="n">
-        <v>8.152231287776111</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="K34" t="n">
-        <v>8.152231287776111</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="L34" t="n">
-        <v>8.152231287776111</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="M34" t="n">
-        <v>8.152231287776111</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="N34" t="n">
-        <v>9.157426549637799</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="O34" t="n">
-        <v>9.157426549637799</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="P34" t="n">
-        <v>9.157426549637799</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="Q34" t="n">
-        <v>9.157426549637799</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="R34" t="n">
-        <v>9.157426549637799</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="S34" t="n">
-        <v>9.157426549637799</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="T34" t="n">
-        <v>9.157426549637799</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="U34" t="n">
-        <v>9.157426549637799</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="V34" t="n">
-        <v>9.157426549637799</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="W34" t="n">
-        <v>9.157426549637799</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="X34" t="n">
-        <v>8.152231287776111</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="Y34" t="n">
-        <v>8.152231287776111</v>
+        <v>7.786455224681454</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>407.6115643888055</v>
+        <v>72.43762422374873</v>
       </c>
       <c r="C35" t="n">
-        <v>304.6793511593091</v>
+        <v>72.43762422374873</v>
       </c>
       <c r="D35" t="n">
-        <v>201.7471379298128</v>
+        <v>72.43762422374873</v>
       </c>
       <c r="E35" t="n">
-        <v>111.0844445172725</v>
+        <v>72.43762422374873</v>
       </c>
       <c r="F35" t="n">
-        <v>111.0844445172725</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="G35" t="n">
-        <v>8.152231287776111</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="H35" t="n">
-        <v>8.152231287776111</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="I35" t="n">
-        <v>8.152231287776111</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="J35" t="n">
-        <v>8.152231287776111</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="K35" t="n">
-        <v>26.37736235377213</v>
+        <v>23.80676326264296</v>
       </c>
       <c r="L35" t="n">
-        <v>85.88901087540796</v>
+        <v>80.58313385421309</v>
       </c>
       <c r="M35" t="n">
-        <v>183.7766239668941</v>
+        <v>175.4272232168677</v>
       </c>
       <c r="N35" t="n">
-        <v>284.6604861531235</v>
+        <v>271.7846066223007</v>
       </c>
       <c r="O35" t="n">
-        <v>369.6100650431185</v>
+        <v>353.8137694399333</v>
       </c>
       <c r="P35" t="n">
-        <v>407.6115643888055</v>
+        <v>389.3227612340727</v>
       </c>
       <c r="Q35" t="n">
-        <v>407.6115643888055</v>
+        <v>367.3791100071371</v>
       </c>
       <c r="R35" t="n">
-        <v>407.6115643888055</v>
+        <v>367.3791100071371</v>
       </c>
       <c r="S35" t="n">
-        <v>407.6115643888055</v>
+        <v>367.3791100071371</v>
       </c>
       <c r="T35" t="n">
-        <v>407.6115643888055</v>
+        <v>367.3791100071371</v>
       </c>
       <c r="U35" t="n">
-        <v>407.6115643888055</v>
+        <v>367.3791100071371</v>
       </c>
       <c r="V35" t="n">
-        <v>407.6115643888055</v>
+        <v>269.0652814126743</v>
       </c>
       <c r="W35" t="n">
-        <v>407.6115643888055</v>
+        <v>170.7514528182115</v>
       </c>
       <c r="X35" t="n">
-        <v>407.6115643888055</v>
+        <v>170.7514528182115</v>
       </c>
       <c r="Y35" t="n">
-        <v>407.6115643888055</v>
+        <v>170.7514528182115</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>201.7471379298128</v>
+        <v>291.0089326396099</v>
       </c>
       <c r="C36" t="n">
-        <v>98.81492470031645</v>
+        <v>291.0089326396099</v>
       </c>
       <c r="D36" t="n">
-        <v>8.152231287776111</v>
+        <v>291.0089326396099</v>
       </c>
       <c r="E36" t="n">
-        <v>8.152231287776111</v>
+        <v>291.0089326396099</v>
       </c>
       <c r="F36" t="n">
-        <v>8.152231287776111</v>
+        <v>192.6951040451471</v>
       </c>
       <c r="G36" t="n">
-        <v>8.152231287776111</v>
+        <v>94.3812754506843</v>
       </c>
       <c r="H36" t="n">
-        <v>8.152231287776111</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="I36" t="n">
-        <v>8.152231287776111</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="J36" t="n">
-        <v>8.152231287776111</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="K36" t="n">
-        <v>8.152231287776111</v>
+        <v>30.1975378704428</v>
       </c>
       <c r="L36" t="n">
-        <v>53.70582787517297</v>
+        <v>106.6545453422012</v>
       </c>
       <c r="M36" t="n">
-        <v>154.5896900614023</v>
+        <v>203.0119287476342</v>
       </c>
       <c r="N36" t="n">
-        <v>255.4735522476317</v>
+        <v>241.1621858766909</v>
       </c>
       <c r="O36" t="n">
-        <v>350.5984854083555</v>
+        <v>334.0806046107606</v>
       </c>
       <c r="P36" t="n">
-        <v>407.6115643888055</v>
+        <v>389.3227612340727</v>
       </c>
       <c r="Q36" t="n">
-        <v>407.6115643888055</v>
+        <v>389.3227612340727</v>
       </c>
       <c r="R36" t="n">
-        <v>407.6115643888055</v>
+        <v>389.3227612340727</v>
       </c>
       <c r="S36" t="n">
-        <v>407.6115643888055</v>
+        <v>389.3227612340727</v>
       </c>
       <c r="T36" t="n">
-        <v>407.6115643888055</v>
+        <v>389.3227612340727</v>
       </c>
       <c r="U36" t="n">
-        <v>407.6115643888055</v>
+        <v>291.0089326396099</v>
       </c>
       <c r="V36" t="n">
-        <v>407.6115643888055</v>
+        <v>291.0089326396099</v>
       </c>
       <c r="W36" t="n">
-        <v>407.6115643888055</v>
+        <v>291.0089326396099</v>
       </c>
       <c r="X36" t="n">
-        <v>407.6115643888055</v>
+        <v>291.0089326396099</v>
       </c>
       <c r="Y36" t="n">
-        <v>304.6793511593091</v>
+        <v>291.0089326396099</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>407.6115643888055</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="C37" t="n">
-        <v>407.6115643888055</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="D37" t="n">
-        <v>407.6115643888055</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="E37" t="n">
-        <v>407.6115643888055</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="F37" t="n">
-        <v>407.6115643888055</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="G37" t="n">
-        <v>406.6063691269438</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="H37" t="n">
-        <v>406.6063691269438</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="I37" t="n">
-        <v>406.6063691269438</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="J37" t="n">
-        <v>406.6063691269438</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="K37" t="n">
-        <v>406.6063691269438</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="L37" t="n">
-        <v>406.6063691269438</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="M37" t="n">
-        <v>406.6063691269438</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="N37" t="n">
-        <v>407.6115643888055</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="O37" t="n">
-        <v>407.6115643888055</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="P37" t="n">
-        <v>407.6115643888055</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="Q37" t="n">
-        <v>407.6115643888055</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="R37" t="n">
-        <v>407.6115643888055</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="S37" t="n">
-        <v>407.6115643888055</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="T37" t="n">
-        <v>407.6115643888055</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="U37" t="n">
-        <v>407.6115643888055</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="V37" t="n">
-        <v>407.6115643888055</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="W37" t="n">
-        <v>407.6115643888055</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="X37" t="n">
-        <v>407.6115643888055</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="Y37" t="n">
-        <v>407.6115643888055</v>
+        <v>7.786455224681454</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>304.6793511593091</v>
+        <v>291.0089326396099</v>
       </c>
       <c r="C38" t="n">
-        <v>304.6793511593091</v>
+        <v>291.0089326396099</v>
       </c>
       <c r="D38" t="n">
-        <v>304.6793511593091</v>
+        <v>291.0089326396099</v>
       </c>
       <c r="E38" t="n">
-        <v>304.6793511593091</v>
+        <v>204.4141124136071</v>
       </c>
       <c r="F38" t="n">
-        <v>304.6793511593091</v>
+        <v>106.1002838191443</v>
       </c>
       <c r="G38" t="n">
-        <v>201.7471379298128</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="H38" t="n">
-        <v>133.2187196057276</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="I38" t="n">
-        <v>30.28650637623123</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="J38" t="n">
-        <v>8.152231287776111</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="K38" t="n">
-        <v>26.37736235377227</v>
+        <v>23.80676326264302</v>
       </c>
       <c r="L38" t="n">
-        <v>85.88901087540793</v>
+        <v>80.5831338542132</v>
       </c>
       <c r="M38" t="n">
-        <v>183.7766239668941</v>
+        <v>175.4272232168677</v>
       </c>
       <c r="N38" t="n">
-        <v>284.6604861531235</v>
+        <v>271.7846066223007</v>
       </c>
       <c r="O38" t="n">
-        <v>369.6100650431185</v>
+        <v>353.8137694399333</v>
       </c>
       <c r="P38" t="n">
-        <v>407.6115643888055</v>
+        <v>389.3227612340727</v>
       </c>
       <c r="Q38" t="n">
-        <v>407.6115643888055</v>
+        <v>389.3227612340727</v>
       </c>
       <c r="R38" t="n">
-        <v>407.6115643888055</v>
+        <v>389.3227612340727</v>
       </c>
       <c r="S38" t="n">
-        <v>407.6115643888055</v>
+        <v>389.3227612340727</v>
       </c>
       <c r="T38" t="n">
-        <v>407.6115643888055</v>
+        <v>389.3227612340727</v>
       </c>
       <c r="U38" t="n">
-        <v>407.6115643888055</v>
+        <v>389.3227612340727</v>
       </c>
       <c r="V38" t="n">
-        <v>407.6115643888055</v>
+        <v>389.3227612340727</v>
       </c>
       <c r="W38" t="n">
-        <v>407.6115643888055</v>
+        <v>389.3227612340727</v>
       </c>
       <c r="X38" t="n">
-        <v>407.6115643888055</v>
+        <v>291.0089326396099</v>
       </c>
       <c r="Y38" t="n">
-        <v>407.6115643888055</v>
+        <v>291.0089326396099</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>8.152231287776111</v>
+        <v>192.9296739998284</v>
       </c>
       <c r="C39" t="n">
-        <v>8.152231287776111</v>
+        <v>192.9296739998284</v>
       </c>
       <c r="D39" t="n">
-        <v>8.152231287776111</v>
+        <v>192.9296739998284</v>
       </c>
       <c r="E39" t="n">
-        <v>8.152231287776111</v>
+        <v>192.9296739998284</v>
       </c>
       <c r="F39" t="n">
-        <v>8.152231287776111</v>
+        <v>106.1002838191443</v>
       </c>
       <c r="G39" t="n">
-        <v>8.152231287776111</v>
+        <v>106.1002838191443</v>
       </c>
       <c r="H39" t="n">
-        <v>8.152231287776111</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="I39" t="n">
-        <v>8.152231287776111</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="J39" t="n">
-        <v>8.152231287776111</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="K39" t="n">
-        <v>8.152231287776111</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="L39" t="n">
-        <v>53.70582787517297</v>
+        <v>48.44741906582493</v>
       </c>
       <c r="M39" t="n">
-        <v>154.5896900614023</v>
+        <v>144.8048024712579</v>
       </c>
       <c r="N39" t="n">
-        <v>255.4735522476317</v>
+        <v>241.1621858766909</v>
       </c>
       <c r="O39" t="n">
-        <v>350.5984854083555</v>
+        <v>334.0806046107606</v>
       </c>
       <c r="P39" t="n">
-        <v>407.6115643888055</v>
+        <v>389.3227612340727</v>
       </c>
       <c r="Q39" t="n">
-        <v>401.1855853981271</v>
+        <v>376.0677080061814</v>
       </c>
       <c r="R39" t="n">
-        <v>316.9488709762651</v>
+        <v>291.2435025942912</v>
       </c>
       <c r="S39" t="n">
-        <v>214.0166577467688</v>
+        <v>291.2435025942912</v>
       </c>
       <c r="T39" t="n">
-        <v>111.0844445172725</v>
+        <v>192.9296739998284</v>
       </c>
       <c r="U39" t="n">
-        <v>8.152231287776111</v>
+        <v>192.9296739998284</v>
       </c>
       <c r="V39" t="n">
-        <v>8.152231287776111</v>
+        <v>192.9296739998284</v>
       </c>
       <c r="W39" t="n">
-        <v>8.152231287776111</v>
+        <v>192.9296739998284</v>
       </c>
       <c r="X39" t="n">
-        <v>8.152231287776111</v>
+        <v>192.9296739998284</v>
       </c>
       <c r="Y39" t="n">
-        <v>8.152231287776111</v>
+        <v>192.9296739998284</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>8.152231287776111</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="C40" t="n">
-        <v>8.152231287776111</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="D40" t="n">
-        <v>8.152231287776111</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="E40" t="n">
-        <v>8.152231287776111</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="F40" t="n">
-        <v>8.152231287776111</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="G40" t="n">
-        <v>8.152231287776111</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="H40" t="n">
-        <v>8.152231287776111</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="I40" t="n">
-        <v>8.152231287776111</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="J40" t="n">
-        <v>8.152231287776111</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="K40" t="n">
-        <v>8.152231287776111</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="L40" t="n">
-        <v>8.152231287776111</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="M40" t="n">
-        <v>8.152231287776111</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="N40" t="n">
-        <v>9.157426549637799</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="O40" t="n">
-        <v>9.157426549637799</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="P40" t="n">
-        <v>9.157426549637799</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="Q40" t="n">
-        <v>9.157426549637799</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="R40" t="n">
-        <v>9.157426549637799</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="S40" t="n">
-        <v>9.157426549637799</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="T40" t="n">
-        <v>9.157426549637799</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="U40" t="n">
-        <v>9.157426549637799</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="V40" t="n">
-        <v>9.157426549637799</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="W40" t="n">
-        <v>9.157426549637799</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="X40" t="n">
-        <v>8.152231287776111</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="Y40" t="n">
-        <v>8.152231287776111</v>
+        <v>7.786455224681454</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>98.81492470031645</v>
+        <v>72.43762422374873</v>
       </c>
       <c r="C41" t="n">
-        <v>98.81492470031645</v>
+        <v>72.43762422374873</v>
       </c>
       <c r="D41" t="n">
-        <v>98.81492470031645</v>
+        <v>72.43762422374873</v>
       </c>
       <c r="E41" t="n">
-        <v>8.152231287776111</v>
+        <v>72.43762422374873</v>
       </c>
       <c r="F41" t="n">
-        <v>8.152231287776111</v>
+        <v>72.43762422374873</v>
       </c>
       <c r="G41" t="n">
-        <v>8.152231287776111</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="H41" t="n">
-        <v>8.152231287776111</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="I41" t="n">
-        <v>8.152231287776111</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="J41" t="n">
-        <v>8.152231287776111</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="K41" t="n">
-        <v>26.37736235377224</v>
+        <v>23.80676326264313</v>
       </c>
       <c r="L41" t="n">
-        <v>85.88901087540793</v>
+        <v>80.58313385421317</v>
       </c>
       <c r="M41" t="n">
-        <v>183.7766239668941</v>
+        <v>175.4272232168677</v>
       </c>
       <c r="N41" t="n">
-        <v>284.6604861531235</v>
+        <v>271.7846066223007</v>
       </c>
       <c r="O41" t="n">
-        <v>369.6100650431185</v>
+        <v>353.8137694399333</v>
       </c>
       <c r="P41" t="n">
-        <v>407.6115643888055</v>
+        <v>389.3227612340727</v>
       </c>
       <c r="Q41" t="n">
-        <v>407.6115643888055</v>
+        <v>367.3791100071371</v>
       </c>
       <c r="R41" t="n">
-        <v>407.6115643888055</v>
+        <v>367.3791100071371</v>
       </c>
       <c r="S41" t="n">
-        <v>304.6793511593091</v>
+        <v>269.0652814126743</v>
       </c>
       <c r="T41" t="n">
-        <v>201.7471379298128</v>
+        <v>170.7514528182115</v>
       </c>
       <c r="U41" t="n">
-        <v>98.81492470031645</v>
+        <v>72.43762422374873</v>
       </c>
       <c r="V41" t="n">
-        <v>98.81492470031645</v>
+        <v>72.43762422374873</v>
       </c>
       <c r="W41" t="n">
-        <v>98.81492470031645</v>
+        <v>72.43762422374873</v>
       </c>
       <c r="X41" t="n">
-        <v>98.81492470031645</v>
+        <v>72.43762422374873</v>
       </c>
       <c r="Y41" t="n">
-        <v>98.81492470031645</v>
+        <v>72.43762422374873</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>8.152231287776111</v>
+        <v>192.6951040451471</v>
       </c>
       <c r="C42" t="n">
-        <v>8.152231287776111</v>
+        <v>192.6951040451471</v>
       </c>
       <c r="D42" t="n">
-        <v>8.152231287776111</v>
+        <v>192.6951040451471</v>
       </c>
       <c r="E42" t="n">
-        <v>8.152231287776111</v>
+        <v>192.6951040451471</v>
       </c>
       <c r="F42" t="n">
-        <v>8.152231287776111</v>
+        <v>192.6951040451471</v>
       </c>
       <c r="G42" t="n">
-        <v>8.152231287776111</v>
+        <v>94.3812754506843</v>
       </c>
       <c r="H42" t="n">
-        <v>8.152231287776111</v>
+        <v>94.3812754506843</v>
       </c>
       <c r="I42" t="n">
-        <v>8.152231287776111</v>
+        <v>28.4160269269197</v>
       </c>
       <c r="J42" t="n">
-        <v>8.152231287776111</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="K42" t="n">
-        <v>8.152231287776111</v>
+        <v>30.1975378704428</v>
       </c>
       <c r="L42" t="n">
-        <v>86.62287078879896</v>
+        <v>106.6545453422012</v>
       </c>
       <c r="M42" t="n">
-        <v>187.5067329750283</v>
+        <v>203.0119287476342</v>
       </c>
       <c r="N42" t="n">
-        <v>288.3905951612577</v>
+        <v>241.1621858766909</v>
       </c>
       <c r="O42" t="n">
-        <v>350.5984854083555</v>
+        <v>334.0806046107606</v>
       </c>
       <c r="P42" t="n">
-        <v>407.6115643888055</v>
+        <v>389.3227612340727</v>
       </c>
       <c r="Q42" t="n">
-        <v>407.6115643888055</v>
+        <v>389.3227612340727</v>
       </c>
       <c r="R42" t="n">
-        <v>407.6115643888055</v>
+        <v>389.3227612340727</v>
       </c>
       <c r="S42" t="n">
-        <v>407.6115643888055</v>
+        <v>291.0089326396099</v>
       </c>
       <c r="T42" t="n">
-        <v>407.6115643888055</v>
+        <v>291.0089326396099</v>
       </c>
       <c r="U42" t="n">
-        <v>304.6793511593091</v>
+        <v>192.6951040451471</v>
       </c>
       <c r="V42" t="n">
-        <v>201.7471379298128</v>
+        <v>192.6951040451471</v>
       </c>
       <c r="W42" t="n">
-        <v>98.81492470031645</v>
+        <v>192.6951040451471</v>
       </c>
       <c r="X42" t="n">
-        <v>8.152231287776111</v>
+        <v>192.6951040451471</v>
       </c>
       <c r="Y42" t="n">
-        <v>8.152231287776111</v>
+        <v>192.6951040451471</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>9.157426549637799</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="C43" t="n">
-        <v>9.157426549637799</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="D43" t="n">
-        <v>9.157426549637799</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="E43" t="n">
-        <v>9.157426549637799</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="F43" t="n">
-        <v>8.152231287776111</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="G43" t="n">
-        <v>8.152231287776111</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="H43" t="n">
-        <v>8.152231287776111</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="I43" t="n">
-        <v>8.152231287776111</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="J43" t="n">
-        <v>8.152231287776111</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="K43" t="n">
-        <v>8.152231287776111</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="L43" t="n">
-        <v>8.152231287776111</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="M43" t="n">
-        <v>8.152231287776111</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="N43" t="n">
-        <v>9.157426549637799</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="O43" t="n">
-        <v>9.157426549637799</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="P43" t="n">
-        <v>9.157426549637799</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="Q43" t="n">
-        <v>9.157426549637799</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="R43" t="n">
-        <v>9.157426549637799</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="S43" t="n">
-        <v>9.157426549637799</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="T43" t="n">
-        <v>9.157426549637799</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="U43" t="n">
-        <v>9.157426549637799</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="V43" t="n">
-        <v>9.157426549637799</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="W43" t="n">
-        <v>9.157426549637799</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="X43" t="n">
-        <v>9.157426549637799</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="Y43" t="n">
-        <v>9.157426549637799</v>
+        <v>7.786455224681454</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>8.152231287776111</v>
+        <v>204.4141124136071</v>
       </c>
       <c r="C44" t="n">
-        <v>8.152231287776111</v>
+        <v>106.1002838191443</v>
       </c>
       <c r="D44" t="n">
-        <v>8.152231287776111</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="E44" t="n">
-        <v>8.152231287776111</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="F44" t="n">
-        <v>8.152231287776111</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="G44" t="n">
-        <v>8.152231287776111</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="H44" t="n">
-        <v>8.152231287776111</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="I44" t="n">
-        <v>8.152231287776111</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="J44" t="n">
-        <v>8.152231287776111</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="K44" t="n">
-        <v>26.37736235377201</v>
+        <v>23.80676326264302</v>
       </c>
       <c r="L44" t="n">
-        <v>85.88901087540796</v>
+        <v>80.5831338542132</v>
       </c>
       <c r="M44" t="n">
-        <v>183.7766239668941</v>
+        <v>175.4272232168677</v>
       </c>
       <c r="N44" t="n">
-        <v>284.6604861531235</v>
+        <v>271.7846066223007</v>
       </c>
       <c r="O44" t="n">
-        <v>369.6100650431185</v>
+        <v>353.8137694399333</v>
       </c>
       <c r="P44" t="n">
-        <v>407.6115643888055</v>
+        <v>389.3227612340727</v>
       </c>
       <c r="Q44" t="n">
-        <v>407.6115643888055</v>
+        <v>389.3227612340727</v>
       </c>
       <c r="R44" t="n">
-        <v>407.6115643888055</v>
+        <v>389.3227612340727</v>
       </c>
       <c r="S44" t="n">
-        <v>407.6115643888055</v>
+        <v>389.3227612340727</v>
       </c>
       <c r="T44" t="n">
-        <v>304.6793511593091</v>
+        <v>302.7279410080699</v>
       </c>
       <c r="U44" t="n">
-        <v>201.7471379298128</v>
+        <v>302.7279410080699</v>
       </c>
       <c r="V44" t="n">
-        <v>201.7471379298128</v>
+        <v>302.7279410080699</v>
       </c>
       <c r="W44" t="n">
-        <v>111.0844445172725</v>
+        <v>302.7279410080699</v>
       </c>
       <c r="X44" t="n">
-        <v>111.0844445172725</v>
+        <v>204.4141124136071</v>
       </c>
       <c r="Y44" t="n">
-        <v>8.152231287776111</v>
+        <v>204.4141124136071</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>395.5643620915289</v>
+        <v>106.1002838191443</v>
       </c>
       <c r="C45" t="n">
-        <v>316.9488709762651</v>
+        <v>106.1002838191443</v>
       </c>
       <c r="D45" t="n">
-        <v>214.0166577467688</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="E45" t="n">
-        <v>214.0166577467688</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="F45" t="n">
-        <v>111.0844445172725</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="G45" t="n">
-        <v>8.152231287776111</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="H45" t="n">
-        <v>8.152231287776111</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="I45" t="n">
-        <v>8.152231287776111</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="J45" t="n">
-        <v>8.152231287776111</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="K45" t="n">
-        <v>8.152231287776111</v>
+        <v>30.1975378704428</v>
       </c>
       <c r="L45" t="n">
-        <v>53.70582787517297</v>
+        <v>106.6545453422012</v>
       </c>
       <c r="M45" t="n">
-        <v>154.5896900614023</v>
+        <v>203.0119287476342</v>
       </c>
       <c r="N45" t="n">
-        <v>255.4735522476317</v>
+        <v>299.3693121530672</v>
       </c>
       <c r="O45" t="n">
-        <v>350.5984854083555</v>
+        <v>334.0806046107606</v>
       </c>
       <c r="P45" t="n">
-        <v>407.6115643888055</v>
+        <v>389.3227612340727</v>
       </c>
       <c r="Q45" t="n">
-        <v>395.5643620915289</v>
+        <v>389.3227612340727</v>
       </c>
       <c r="R45" t="n">
-        <v>395.5643620915289</v>
+        <v>389.3227612340727</v>
       </c>
       <c r="S45" t="n">
-        <v>395.5643620915289</v>
+        <v>389.3227612340727</v>
       </c>
       <c r="T45" t="n">
-        <v>395.5643620915289</v>
+        <v>389.3227612340727</v>
       </c>
       <c r="U45" t="n">
-        <v>395.5643620915289</v>
+        <v>291.0089326396099</v>
       </c>
       <c r="V45" t="n">
-        <v>395.5643620915289</v>
+        <v>291.0089326396099</v>
       </c>
       <c r="W45" t="n">
-        <v>395.5643620915289</v>
+        <v>204.4141124136071</v>
       </c>
       <c r="X45" t="n">
-        <v>395.5643620915289</v>
+        <v>204.4141124136071</v>
       </c>
       <c r="Y45" t="n">
-        <v>395.5643620915289</v>
+        <v>106.1002838191443</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>9.157426549637799</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="C46" t="n">
-        <v>9.157426549637799</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="D46" t="n">
-        <v>9.157426549637799</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="E46" t="n">
-        <v>9.157426549637799</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="F46" t="n">
-        <v>8.152231287776111</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="G46" t="n">
-        <v>8.152231287776111</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="H46" t="n">
-        <v>8.152231287776111</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="I46" t="n">
-        <v>8.152231287776111</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="J46" t="n">
-        <v>8.152231287776111</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="K46" t="n">
-        <v>8.152231287776111</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="L46" t="n">
-        <v>8.152231287776111</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="M46" t="n">
-        <v>8.152231287776111</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="N46" t="n">
-        <v>9.157426549637799</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="O46" t="n">
-        <v>9.157426549637799</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="P46" t="n">
-        <v>9.157426549637799</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="Q46" t="n">
-        <v>9.157426549637799</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="R46" t="n">
-        <v>9.157426549637799</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="S46" t="n">
-        <v>9.157426549637799</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="T46" t="n">
-        <v>9.157426549637799</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="U46" t="n">
-        <v>9.157426549637799</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="V46" t="n">
-        <v>9.157426549637799</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="W46" t="n">
-        <v>9.157426549637799</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="X46" t="n">
-        <v>9.157426549637799</v>
+        <v>7.786455224681454</v>
       </c>
       <c r="Y46" t="n">
-        <v>9.157426549637799</v>
+        <v>7.786455224681454</v>
       </c>
     </row>
   </sheetData>
@@ -23269,19 +23269,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>383.3957403185055</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>349.5519082327678</v>
+        <v>413.5571995917977</v>
       </c>
       <c r="H11" t="n">
-        <v>257.5930204993581</v>
+        <v>321.5983118583879</v>
       </c>
       <c r="I11" t="n">
-        <v>79.17574742191047</v>
+        <v>143.1810387809403</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>32.89555520582749</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23302,10 +23302,10 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>33.80723145564642</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>105.9373912372883</v>
+        <v>41.93209987825851</v>
       </c>
       <c r="S11" t="n">
         <v>169.243624158194</v>
@@ -23317,13 +23317,13 @@
         <v>251.2060098739695</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>263.7469671111051</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>285.2356773583832</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>347.162471505082</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -23348,19 +23348,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>127.293645307012</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
         <v>72.40428067850078</v>
       </c>
       <c r="H12" t="n">
-        <v>39.2102091636623</v>
+        <v>103.2155005226921</v>
       </c>
       <c r="I12" t="n">
-        <v>3.36152181382937</v>
+        <v>67.3668131728592</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>38.60029354266159</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23381,13 +23381,13 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>20.76449804307808</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>87.69298116077856</v>
+        <v>23.68768980174873</v>
       </c>
       <c r="S12" t="n">
-        <v>154.3355500193867</v>
+        <v>90.33025866035689</v>
       </c>
       <c r="T12" t="n">
         <v>196.4002744382429</v>
@@ -23396,7 +23396,7 @@
         <v>225.8799383227064</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>197.1892245634699</v>
       </c>
       <c r="W12" t="n">
         <v>251.6949831609196</v>
@@ -23506,19 +23506,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>350.500185112678</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>349.5519082327678</v>
+        <v>413.4631744246258</v>
       </c>
       <c r="H14" t="n">
-        <v>257.5930204993581</v>
+        <v>320.6353766150897</v>
       </c>
       <c r="I14" t="n">
-        <v>79.17574742191047</v>
+        <v>139.5561335235496</v>
       </c>
       <c r="J14" t="n">
-        <v>32.89555520582749</v>
+        <v>24.91528667358037</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23539,25 +23539,25 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>33.80723145564642</v>
+        <v>23.65357118422324</v>
       </c>
       <c r="R14" t="n">
-        <v>105.9373912372883</v>
+        <v>18.41179549609184</v>
       </c>
       <c r="S14" t="n">
-        <v>169.243624158194</v>
+        <v>167.1010256612668</v>
       </c>
       <c r="T14" t="n">
-        <v>215.4547573047218</v>
+        <v>215.0431621354273</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2060098739695</v>
+        <v>158.5335385714936</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>235.0873091810327</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>256.5760194283108</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -23585,19 +23585,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>127.293645307012</v>
+        <v>69.69719297384285</v>
       </c>
       <c r="G15" t="n">
-        <v>72.40428067850078</v>
+        <v>136.3592641379443</v>
       </c>
       <c r="H15" t="n">
-        <v>39.2102091636623</v>
+        <v>102.729632124056</v>
       </c>
       <c r="I15" t="n">
-        <v>3.36152181382937</v>
+        <v>65.63472101605001</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>33.84730027516773</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23618,19 +23618,19 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>20.76449804307808</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>87.69298116077856</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>154.3355500193867</v>
+        <v>60.73615356033713</v>
       </c>
       <c r="T15" t="n">
-        <v>196.4002744382429</v>
+        <v>196.197498299121</v>
       </c>
       <c r="U15" t="n">
-        <v>225.8799383227064</v>
+        <v>133.2116793033683</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -23667,49 +23667,49 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>167.2079911383388</v>
+        <v>167.1658146852775</v>
       </c>
       <c r="H16" t="n">
-        <v>155.2656954230999</v>
+        <v>154.8907084131551</v>
       </c>
       <c r="I16" t="n">
-        <v>131.9038837258314</v>
+        <v>130.6355227555885</v>
       </c>
       <c r="J16" t="n">
-        <v>71.63815427691216</v>
+        <v>68.65627904547948</v>
       </c>
       <c r="K16" t="n">
-        <v>38.04426314204819</v>
+        <v>33.14412614092828</v>
       </c>
       <c r="L16" t="n">
-        <v>18.47568217357946</v>
+        <v>12.20519387026839</v>
       </c>
       <c r="M16" t="n">
-        <v>16.18882140643099</v>
+        <v>9.577470677924651</v>
       </c>
       <c r="N16" t="n">
-        <v>7.866992562688111</v>
+        <v>1.412844977410202</v>
       </c>
       <c r="O16" t="n">
-        <v>27.78471257524502</v>
+        <v>21.823262646183</v>
       </c>
       <c r="P16" t="n">
-        <v>43.02913786299791</v>
+        <v>37.92808757638606</v>
       </c>
       <c r="Q16" t="n">
-        <v>85.94041530648843</v>
+        <v>82.40871249605685</v>
       </c>
       <c r="R16" t="n">
-        <v>142.087393770683</v>
+        <v>140.1909870721275</v>
       </c>
       <c r="S16" t="n">
-        <v>210.3712487826992</v>
+        <v>209.6362282325312</v>
       </c>
       <c r="T16" t="n">
-        <v>224.6000943059506</v>
+        <v>224.4198858246887</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2763209081207</v>
+        <v>286.2740203743174</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>301.1145543296394</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -23740,19 +23740,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>289.2654207831596</v>
+        <v>300.3110827384206</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>314.2110964526092</v>
       </c>
       <c r="G17" t="n">
         <v>413.4631744246258</v>
       </c>
       <c r="H17" t="n">
-        <v>227.9704273259875</v>
+        <v>320.6353766150897</v>
       </c>
       <c r="I17" t="n">
-        <v>139.5561335235496</v>
+        <v>46.89118423444745</v>
       </c>
       <c r="J17" t="n">
         <v>24.91528667358037</v>
@@ -23825,7 +23825,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>136.3592641379443</v>
+        <v>43.69431484884211</v>
       </c>
       <c r="H18" t="n">
         <v>102.729632124056</v>
@@ -23858,19 +23858,19 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>84.56947841277972</v>
       </c>
       <c r="S18" t="n">
         <v>60.73615356033713</v>
       </c>
       <c r="T18" t="n">
-        <v>103.5325490100188</v>
+        <v>196.197498299121</v>
       </c>
       <c r="U18" t="n">
-        <v>150.5046091729294</v>
+        <v>133.2116793033683</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>165.5240386062067</v>
       </c>
       <c r="W18" t="n">
         <v>251.6949831609196</v>
@@ -23974,7 +23974,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>262.0180923315808</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -23983,7 +23983,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>413.4631744246258</v>
+        <v>320.7982251355236</v>
       </c>
       <c r="H20" t="n">
         <v>320.6353766150897</v>
@@ -24013,31 +24013,31 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>23.65357118422324</v>
       </c>
       <c r="R20" t="n">
-        <v>42.06536668031512</v>
+        <v>100.0310828299331</v>
       </c>
       <c r="S20" t="n">
         <v>167.1010256612668</v>
       </c>
       <c r="T20" t="n">
-        <v>122.3782128463251</v>
+        <v>133.4238748015861</v>
       </c>
       <c r="U20" t="n">
         <v>251.1984878605957</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>235.0873091810327</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>256.5760194283108</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>293.5729893669514</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24050,16 +24050,16 @@
         <v>73.86823436076514</v>
       </c>
       <c r="C21" t="n">
-        <v>80.04354969921354</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>54.78011627553656</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>64.98013116629875</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>52.40426310428168</v>
       </c>
       <c r="G21" t="n">
         <v>136.3592641379443</v>
@@ -24101,10 +24101,10 @@
         <v>153.4011028494393</v>
       </c>
       <c r="T21" t="n">
-        <v>114.5782109652797</v>
+        <v>196.197498299121</v>
       </c>
       <c r="U21" t="n">
-        <v>225.8766285924705</v>
+        <v>144.2573412586293</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -24208,7 +24208,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>263.3700006738062</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -24220,16 +24220,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>413.4278000675836</v>
+        <v>413.4453081518006</v>
       </c>
       <c r="H23" t="n">
-        <v>218.37020788383</v>
+        <v>320.4524036485182</v>
       </c>
       <c r="I23" t="n">
-        <v>138.1923636236805</v>
+        <v>138.8673440404544</v>
       </c>
       <c r="J23" t="n">
-        <v>21.91293233757057</v>
+        <v>23.39890910037886</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24250,28 +24250,28 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>19.83353858518319</v>
+        <v>21.72421471466623</v>
       </c>
       <c r="R23" t="n">
-        <v>97.80899837438145</v>
+        <v>1.578100261056193</v>
       </c>
       <c r="S23" t="n">
-        <v>166.2949325001678</v>
+        <v>69.36320766074334</v>
       </c>
       <c r="T23" t="n">
-        <v>214.8883108874751</v>
+        <v>117.6342622176166</v>
       </c>
       <c r="U23" t="n">
-        <v>161.4395914336174</v>
+        <v>251.1970585587697</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>242.0233864463921</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>267.8282095812676</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -24284,7 +24284,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>64.63029255266596</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
@@ -24296,19 +24296,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>59.34034036964107</v>
       </c>
       <c r="G24" t="n">
-        <v>136.340337188325</v>
+        <v>136.3497048392341</v>
       </c>
       <c r="H24" t="n">
-        <v>102.5468376369431</v>
+        <v>102.6373094233546</v>
       </c>
       <c r="I24" t="n">
-        <v>64.98306946117428</v>
+        <v>65.30559603852696</v>
       </c>
       <c r="J24" t="n">
-        <v>32.05911860082659</v>
+        <v>32.94415618079525</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24329,28 +24329,28 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>11.92673027430385</v>
+        <v>13.12250269561243</v>
       </c>
       <c r="R24" t="n">
-        <v>83.39434727764332</v>
+        <v>83.97596335777126</v>
       </c>
       <c r="S24" t="n">
-        <v>153.0495430615541</v>
+        <v>55.89285276005364</v>
       </c>
       <c r="T24" t="n">
-        <v>196.1212094100852</v>
+        <v>98.8282773085208</v>
       </c>
       <c r="U24" t="n">
-        <v>225.8753833984165</v>
+        <v>128.5453093827213</v>
       </c>
       <c r="V24" t="n">
-        <v>143.0445206710103</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>149.7920920637182</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>103.8700941062761</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
         <v>205.6826957773044</v>
@@ -24378,49 +24378,49 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>167.1499469665141</v>
+        <v>167.1578004903565</v>
       </c>
       <c r="H25" t="n">
-        <v>154.7496299681496</v>
+        <v>154.8194549346757</v>
       </c>
       <c r="I25" t="n">
-        <v>130.1583371767766</v>
+        <v>130.3945140574189</v>
       </c>
       <c r="J25" t="n">
-        <v>67.53443132890757</v>
+        <v>68.08967546456509</v>
       </c>
       <c r="K25" t="n">
-        <v>31.30058572459949</v>
+        <v>32.21302240374352</v>
       </c>
       <c r="L25" t="n">
-        <v>9.846096846118087</v>
+        <v>11.01370165446875</v>
       </c>
       <c r="M25" t="n">
-        <v>7.090133635768382</v>
+        <v>8.321209195899883</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>0.1864545855454907</v>
       </c>
       <c r="O25" t="n">
-        <v>19.58043272497173</v>
+        <v>20.69049262225901</v>
       </c>
       <c r="P25" t="n">
-        <v>36.00895911794802</v>
+        <v>36.95880712885038</v>
       </c>
       <c r="Q25" t="n">
-        <v>81.08000742760579</v>
+        <v>81.73763295589967</v>
       </c>
       <c r="R25" t="n">
-        <v>139.4775167357298</v>
+        <v>139.8306397259526</v>
       </c>
       <c r="S25" t="n">
-        <v>208.3645538608388</v>
+        <v>209.4965626719535</v>
       </c>
       <c r="T25" t="n">
-        <v>224.3520873899724</v>
+        <v>224.3856433554809</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2731548623848</v>
+        <v>286.2735832364126</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -24445,28 +24445,28 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>267.9422014624894</v>
       </c>
       <c r="D26" t="n">
-        <v>252.7801505234816</v>
+        <v>257.3523513121648</v>
       </c>
       <c r="E26" t="n">
-        <v>292.1743035938468</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>304.97315464451</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>311.5249089703823</v>
+        <v>413.4453081518006</v>
       </c>
       <c r="H26" t="n">
-        <v>320.2730989810314</v>
+        <v>234.7235316247754</v>
       </c>
       <c r="I26" t="n">
-        <v>138.1923636236805</v>
+        <v>138.8673440404544</v>
       </c>
       <c r="J26" t="n">
-        <v>21.91293233757057</v>
+        <v>23.39890910037886</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24487,19 +24487,19 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>19.83353858518319</v>
+        <v>21.72421471466623</v>
       </c>
       <c r="R26" t="n">
-        <v>97.80899837438145</v>
+        <v>98.90879056957436</v>
       </c>
       <c r="S26" t="n">
-        <v>166.2949325001678</v>
+        <v>166.6938979692615</v>
       </c>
       <c r="T26" t="n">
-        <v>214.8883108874751</v>
+        <v>117.6342622176166</v>
       </c>
       <c r="U26" t="n">
-        <v>251.1956579120324</v>
+        <v>251.1970585587697</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>69.20249334134917</v>
       </c>
       <c r="C27" t="n">
         <v>172.7084989883157</v>
@@ -24530,22 +24530,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>55.74218935819957</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>43.1663212961825</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>136.340337188325</v>
+        <v>136.3497048392341</v>
       </c>
       <c r="H27" t="n">
-        <v>102.5468376369431</v>
+        <v>102.6373094233546</v>
       </c>
       <c r="I27" t="n">
-        <v>64.98306946117428</v>
+        <v>63.5526873725554</v>
       </c>
       <c r="J27" t="n">
-        <v>32.05911860082659</v>
+        <v>32.94415618079525</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24566,25 +24566,25 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>11.92673027430385</v>
+        <v>13.12250269561243</v>
       </c>
       <c r="R27" t="n">
-        <v>83.39434727764332</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>153.0495430615541</v>
+        <v>55.89285276005364</v>
       </c>
       <c r="T27" t="n">
-        <v>196.1212094100852</v>
+        <v>98.8282773085208</v>
       </c>
       <c r="U27" t="n">
-        <v>123.9724923012152</v>
+        <v>225.8759996912395</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>161.9389166825047</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
@@ -24615,49 +24615,49 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>167.1499469665141</v>
+        <v>167.1578004903565</v>
       </c>
       <c r="H28" t="n">
-        <v>154.7496299681496</v>
+        <v>154.8194549346757</v>
       </c>
       <c r="I28" t="n">
-        <v>130.1583371767766</v>
+        <v>130.3945140574189</v>
       </c>
       <c r="J28" t="n">
-        <v>67.53443132890757</v>
+        <v>68.08967546456509</v>
       </c>
       <c r="K28" t="n">
-        <v>31.30058572459949</v>
+        <v>32.21302240374352</v>
       </c>
       <c r="L28" t="n">
-        <v>9.846096846118087</v>
+        <v>11.01370165446875</v>
       </c>
       <c r="M28" t="n">
-        <v>7.090133635768382</v>
+        <v>8.321209195899883</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>0.1864545855454907</v>
       </c>
       <c r="O28" t="n">
-        <v>19.58043272497173</v>
+        <v>20.69049262225901</v>
       </c>
       <c r="P28" t="n">
-        <v>36.00895911794802</v>
+        <v>36.95880712885038</v>
       </c>
       <c r="Q28" t="n">
-        <v>80.08486411836272</v>
+        <v>81.73763295589967</v>
       </c>
       <c r="R28" t="n">
-        <v>139.4775167357298</v>
+        <v>139.8306397259526</v>
       </c>
       <c r="S28" t="n">
-        <v>209.3596971700819</v>
+        <v>209.4965626719535</v>
       </c>
       <c r="T28" t="n">
-        <v>224.3520873899724</v>
+        <v>224.3856433554809</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2731548623848</v>
+        <v>286.2735832364126</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24685,25 +24685,25 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>268.9541695969401</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>284.5996797637436</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>311.5249089703823</v>
+        <v>413.4453081518006</v>
       </c>
       <c r="H29" t="n">
-        <v>320.2730989810314</v>
+        <v>320.4524036485182</v>
       </c>
       <c r="I29" t="n">
-        <v>36.28947252647916</v>
+        <v>138.8673440404544</v>
       </c>
       <c r="J29" t="n">
-        <v>21.91293233757057</v>
+        <v>23.39890910037886</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24724,28 +24724,28 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>19.83353858518319</v>
+        <v>21.72421471466623</v>
       </c>
       <c r="R29" t="n">
-        <v>8.052931895966495</v>
+        <v>98.90879056957436</v>
       </c>
       <c r="S29" t="n">
-        <v>166.2949325001678</v>
+        <v>166.6938979692615</v>
       </c>
       <c r="T29" t="n">
-        <v>214.8883108874751</v>
+        <v>214.9649525261348</v>
       </c>
       <c r="U29" t="n">
-        <v>251.1956579120324</v>
+        <v>251.1970585587697</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>251.9102784088948</v>
       </c>
       <c r="X29" t="n">
-        <v>267.8282095812676</v>
+        <v>272.4004103699509</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -24758,13 +24758,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>64.63029255266596</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>50.11437525612058</v>
       </c>
       <c r="E30" t="n">
         <v>157.6450804554009</v>
@@ -24773,16 +24773,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>136.340337188325</v>
+        <v>136.3497048392341</v>
       </c>
       <c r="H30" t="n">
-        <v>102.5468376369431</v>
+        <v>5.306619114836423</v>
       </c>
       <c r="I30" t="n">
-        <v>64.98306946117428</v>
+        <v>65.30559603852696</v>
       </c>
       <c r="J30" t="n">
-        <v>32.05911860082659</v>
+        <v>31.19124751482369</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24803,25 +24803,25 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>11.92673027430385</v>
+        <v>13.12250269561243</v>
       </c>
       <c r="R30" t="n">
-        <v>83.39434727764332</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>153.0495430615541</v>
+        <v>55.89285276005364</v>
       </c>
       <c r="T30" t="n">
-        <v>196.1212094100852</v>
+        <v>196.158967617039</v>
       </c>
       <c r="U30" t="n">
-        <v>123.9724923012152</v>
+        <v>225.8759996912395</v>
       </c>
       <c r="V30" t="n">
-        <v>143.0445206710103</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>149.7920920637182</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
@@ -24852,49 +24852,49 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>167.1499469665141</v>
+        <v>167.1578004903565</v>
       </c>
       <c r="H31" t="n">
-        <v>154.7496299681496</v>
+        <v>154.8194549346757</v>
       </c>
       <c r="I31" t="n">
-        <v>129.1631938675336</v>
+        <v>130.3945140574189</v>
       </c>
       <c r="J31" t="n">
-        <v>67.53443132890757</v>
+        <v>68.08967546456509</v>
       </c>
       <c r="K31" t="n">
-        <v>31.30058572459949</v>
+        <v>32.21302240374352</v>
       </c>
       <c r="L31" t="n">
-        <v>9.846096846118087</v>
+        <v>11.01370165446875</v>
       </c>
       <c r="M31" t="n">
-        <v>7.090133635768382</v>
+        <v>8.321209195899883</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>0.1864545855454907</v>
       </c>
       <c r="O31" t="n">
-        <v>19.58043272497173</v>
+        <v>20.69049262225901</v>
       </c>
       <c r="P31" t="n">
-        <v>36.00895911794802</v>
+        <v>36.95880712885038</v>
       </c>
       <c r="Q31" t="n">
-        <v>81.08000742760579</v>
+        <v>81.73763295589967</v>
       </c>
       <c r="R31" t="n">
-        <v>139.4775167357298</v>
+        <v>139.8306397259526</v>
       </c>
       <c r="S31" t="n">
-        <v>209.3596971700819</v>
+        <v>209.4965626719535</v>
       </c>
       <c r="T31" t="n">
-        <v>224.3520873899724</v>
+        <v>224.3856433554809</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2731548623848</v>
+        <v>286.2735832364126</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -24922,7 +24922,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>252.7801505234816</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -24931,16 +24931,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>413.4278000675836</v>
+        <v>413.4453081518006</v>
       </c>
       <c r="H32" t="n">
-        <v>320.2730989810314</v>
+        <v>320.4524036485182</v>
       </c>
       <c r="I32" t="n">
-        <v>138.1923636236805</v>
+        <v>138.8673440404544</v>
       </c>
       <c r="J32" t="n">
-        <v>21.91293233757057</v>
+        <v>23.39890910037886</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24961,25 +24961,25 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>19.83353858518319</v>
+        <v>21.72421471466623</v>
       </c>
       <c r="R32" t="n">
-        <v>97.80899837438145</v>
+        <v>98.90879056957436</v>
       </c>
       <c r="S32" t="n">
-        <v>166.2949325001678</v>
+        <v>166.6938979692615</v>
       </c>
       <c r="T32" t="n">
-        <v>125.1322444090602</v>
+        <v>129.236080502392</v>
       </c>
       <c r="U32" t="n">
-        <v>149.292766814831</v>
+        <v>153.8663682502516</v>
       </c>
       <c r="V32" t="n">
-        <v>225.8493673729335</v>
+        <v>230.4215681616167</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>251.9102784088948</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -24998,28 +24998,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>100.1021296601854</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>50.11437525612058</v>
       </c>
       <c r="E33" t="n">
-        <v>55.74218935819957</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>43.1663212961825</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>136.340337188325</v>
+        <v>39.01901453071594</v>
       </c>
       <c r="H33" t="n">
-        <v>102.5468376369431</v>
+        <v>102.6373094233546</v>
       </c>
       <c r="I33" t="n">
-        <v>64.98306946117428</v>
+        <v>65.30559603852696</v>
       </c>
       <c r="J33" t="n">
-        <v>32.05911860082659</v>
+        <v>32.94415618079525</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25040,22 +25040,22 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>11.92673027430385</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>83.39434727764332</v>
+        <v>83.97596335777126</v>
       </c>
       <c r="S33" t="n">
-        <v>51.14665196435277</v>
+        <v>153.2235430685718</v>
       </c>
       <c r="T33" t="n">
-        <v>196.1212094100852</v>
+        <v>98.8282773085208</v>
       </c>
       <c r="U33" t="n">
-        <v>225.8753833984165</v>
+        <v>225.8759996912395</v>
       </c>
       <c r="V33" t="n">
-        <v>143.0445206710103</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
         <v>251.6949831609196</v>
@@ -25089,49 +25089,49 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>167.1499469665141</v>
+        <v>167.1578004903565</v>
       </c>
       <c r="H34" t="n">
-        <v>154.7496299681496</v>
+        <v>154.8194549346757</v>
       </c>
       <c r="I34" t="n">
-        <v>130.1583371767766</v>
+        <v>130.3945140574189</v>
       </c>
       <c r="J34" t="n">
-        <v>67.53443132890757</v>
+        <v>68.08967546456509</v>
       </c>
       <c r="K34" t="n">
-        <v>31.30058572459949</v>
+        <v>32.21302240374352</v>
       </c>
       <c r="L34" t="n">
-        <v>9.846096846118087</v>
+        <v>11.01370165446875</v>
       </c>
       <c r="M34" t="n">
-        <v>7.090133635768382</v>
+        <v>8.321209195899883</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>0.1864545855454907</v>
       </c>
       <c r="O34" t="n">
-        <v>19.58043272497173</v>
+        <v>20.69049262225901</v>
       </c>
       <c r="P34" t="n">
-        <v>36.00895911794802</v>
+        <v>36.95880712885038</v>
       </c>
       <c r="Q34" t="n">
-        <v>81.08000742760579</v>
+        <v>81.73763295589967</v>
       </c>
       <c r="R34" t="n">
-        <v>139.4775167357298</v>
+        <v>139.8306397259526</v>
       </c>
       <c r="S34" t="n">
-        <v>209.3596971700819</v>
+        <v>209.4965626719535</v>
       </c>
       <c r="T34" t="n">
-        <v>224.3520873899724</v>
+        <v>224.3856433554809</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2731548623848</v>
+        <v>286.2735832364126</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25140,7 +25140,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>224.7145120797941</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25153,31 +25153,31 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>285.4031513549624</v>
       </c>
       <c r="C35" t="n">
-        <v>263.3700006738062</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>252.7801505234816</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>292.1743035938468</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>342.8713884326348</v>
       </c>
       <c r="G35" t="n">
-        <v>311.5249089703823</v>
+        <v>413.4453081518006</v>
       </c>
       <c r="H35" t="n">
-        <v>320.2730989810314</v>
+        <v>320.4524036485182</v>
       </c>
       <c r="I35" t="n">
-        <v>138.1923636236805</v>
+        <v>138.8673440404544</v>
       </c>
       <c r="J35" t="n">
-        <v>21.91293233757057</v>
+        <v>23.39890910037886</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25198,25 +25198,25 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>19.83353858518319</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>97.80899837438145</v>
+        <v>98.90879056957436</v>
       </c>
       <c r="S35" t="n">
-        <v>166.2949325001678</v>
+        <v>166.6938979692615</v>
       </c>
       <c r="T35" t="n">
-        <v>214.8883108874751</v>
+        <v>214.9649525261348</v>
       </c>
       <c r="U35" t="n">
-        <v>251.1956579120324</v>
+        <v>251.1970585587697</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>230.4215681616167</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>251.9102784088948</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -25232,31 +25232,31 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>64.63029255266596</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>70.80560789111436</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>57.68899908622383</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>47.73852208486571</v>
       </c>
       <c r="G36" t="n">
-        <v>136.340337188325</v>
+        <v>39.01901453071594</v>
       </c>
       <c r="H36" t="n">
-        <v>102.5468376369431</v>
+        <v>16.90843739961178</v>
       </c>
       <c r="I36" t="n">
-        <v>64.98306946117428</v>
+        <v>65.30559603852696</v>
       </c>
       <c r="J36" t="n">
-        <v>32.05911860082659</v>
+        <v>32.94415618079525</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25277,19 +25277,19 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>11.92673027430385</v>
+        <v>13.12250269561243</v>
       </c>
       <c r="R36" t="n">
-        <v>83.39434727764332</v>
+        <v>83.97596335777126</v>
       </c>
       <c r="S36" t="n">
-        <v>153.0495430615541</v>
+        <v>153.2235430685718</v>
       </c>
       <c r="T36" t="n">
-        <v>196.1212094100852</v>
+        <v>196.158967617039</v>
       </c>
       <c r="U36" t="n">
-        <v>225.8753833984165</v>
+        <v>128.5453093827213</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
@@ -25301,7 +25301,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>103.779804680103</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -25326,49 +25326,49 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.154803657271</v>
+        <v>167.1578004903565</v>
       </c>
       <c r="H37" t="n">
-        <v>154.7496299681496</v>
+        <v>154.8194549346757</v>
       </c>
       <c r="I37" t="n">
-        <v>130.1583371767766</v>
+        <v>130.3945140574189</v>
       </c>
       <c r="J37" t="n">
-        <v>67.53443132890757</v>
+        <v>68.08967546456509</v>
       </c>
       <c r="K37" t="n">
-        <v>31.30058572459949</v>
+        <v>32.21302240374352</v>
       </c>
       <c r="L37" t="n">
-        <v>9.846096846118087</v>
+        <v>11.01370165446875</v>
       </c>
       <c r="M37" t="n">
-        <v>7.090133635768382</v>
+        <v>8.321209195899883</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>0.1864545855454907</v>
       </c>
       <c r="O37" t="n">
-        <v>19.58043272497173</v>
+        <v>20.69049262225901</v>
       </c>
       <c r="P37" t="n">
-        <v>36.00895911794802</v>
+        <v>36.95880712885038</v>
       </c>
       <c r="Q37" t="n">
-        <v>81.08000742760579</v>
+        <v>81.73763295589967</v>
       </c>
       <c r="R37" t="n">
-        <v>139.4775167357298</v>
+        <v>139.8306397259526</v>
       </c>
       <c r="S37" t="n">
-        <v>209.3596971700819</v>
+        <v>209.4965626719535</v>
       </c>
       <c r="T37" t="n">
-        <v>224.3520873899724</v>
+        <v>224.3856433554809</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2731548623848</v>
+        <v>286.2735832364126</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>280.8309505662792</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -25399,22 +25399,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>296.201498048519</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>309.5453554331933</v>
       </c>
       <c r="G38" t="n">
-        <v>311.5249089703823</v>
+        <v>316.1146178432824</v>
       </c>
       <c r="H38" t="n">
-        <v>252.429964840187</v>
+        <v>320.4524036485182</v>
       </c>
       <c r="I38" t="n">
-        <v>36.28947252647916</v>
+        <v>138.8673440404544</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>23.39890910037886</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25435,19 +25435,19 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>19.83353858518319</v>
+        <v>21.72421471466623</v>
       </c>
       <c r="R38" t="n">
-        <v>97.80899837438145</v>
+        <v>98.90879056957436</v>
       </c>
       <c r="S38" t="n">
-        <v>166.2949325001678</v>
+        <v>166.6938979692615</v>
       </c>
       <c r="T38" t="n">
-        <v>214.8883108874751</v>
+        <v>214.9649525261348</v>
       </c>
       <c r="U38" t="n">
-        <v>251.1956579120324</v>
+        <v>251.1970585587697</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -25456,7 +25456,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>272.4004103699509</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -25481,19 +25481,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>59.10811611450663</v>
       </c>
       <c r="G39" t="n">
-        <v>136.340337188325</v>
+        <v>136.3497048392341</v>
       </c>
       <c r="H39" t="n">
-        <v>102.5468376369431</v>
+        <v>5.306619114836423</v>
       </c>
       <c r="I39" t="n">
-        <v>64.98306946117428</v>
+        <v>65.30559603852696</v>
       </c>
       <c r="J39" t="n">
-        <v>32.05911860082659</v>
+        <v>32.94415618079525</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25514,19 +25514,19 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>5.565011073532232</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>51.14665196435277</v>
+        <v>153.2235430685718</v>
       </c>
       <c r="T39" t="n">
-        <v>94.21831831288381</v>
+        <v>98.8282773085208</v>
       </c>
       <c r="U39" t="n">
-        <v>123.9724923012152</v>
+        <v>225.8759996912395</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
@@ -25563,49 +25563,49 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>167.1499469665141</v>
+        <v>167.1578004903565</v>
       </c>
       <c r="H40" t="n">
-        <v>154.7496299681496</v>
+        <v>154.8194549346757</v>
       </c>
       <c r="I40" t="n">
-        <v>130.1583371767766</v>
+        <v>130.3945140574189</v>
       </c>
       <c r="J40" t="n">
-        <v>67.53443132890757</v>
+        <v>68.08967546456509</v>
       </c>
       <c r="K40" t="n">
-        <v>31.30058572459949</v>
+        <v>32.21302240374352</v>
       </c>
       <c r="L40" t="n">
-        <v>9.846096846118087</v>
+        <v>11.01370165446875</v>
       </c>
       <c r="M40" t="n">
-        <v>7.090133635768382</v>
+        <v>8.321209195899883</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>0.1864545855454907</v>
       </c>
       <c r="O40" t="n">
-        <v>19.58043272497173</v>
+        <v>20.69049262225901</v>
       </c>
       <c r="P40" t="n">
-        <v>36.00895911794802</v>
+        <v>36.95880712885038</v>
       </c>
       <c r="Q40" t="n">
-        <v>81.08000742760579</v>
+        <v>81.73763295589967</v>
       </c>
       <c r="R40" t="n">
-        <v>139.4775167357298</v>
+        <v>139.8306397259526</v>
       </c>
       <c r="S40" t="n">
-        <v>209.3596971700819</v>
+        <v>209.4965626719535</v>
       </c>
       <c r="T40" t="n">
-        <v>224.3520873899724</v>
+        <v>224.3856433554809</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2731548623848</v>
+        <v>286.2735832364126</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -25614,7 +25614,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>224.7145120797941</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25636,22 +25636,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>292.1743035938468</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>413.4278000675836</v>
+        <v>349.440650842724</v>
       </c>
       <c r="H41" t="n">
-        <v>320.2730989810314</v>
+        <v>320.4524036485182</v>
       </c>
       <c r="I41" t="n">
-        <v>138.1923636236805</v>
+        <v>138.8673440404544</v>
       </c>
       <c r="J41" t="n">
-        <v>21.91293233757057</v>
+        <v>23.39890910037886</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25672,19 +25672,19 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>19.83353858518319</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>97.80899837438145</v>
+        <v>98.90879056957436</v>
       </c>
       <c r="S41" t="n">
-        <v>64.39204140296641</v>
+        <v>69.36320766074334</v>
       </c>
       <c r="T41" t="n">
-        <v>112.9854197902737</v>
+        <v>117.6342622176166</v>
       </c>
       <c r="U41" t="n">
-        <v>149.292766814831</v>
+        <v>153.8663682502516</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -25721,16 +25721,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>136.340337188325</v>
+        <v>39.01901453071594</v>
       </c>
       <c r="H42" t="n">
-        <v>102.5468376369431</v>
+        <v>102.6373094233546</v>
       </c>
       <c r="I42" t="n">
-        <v>64.98306946117428</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>32.05911860082659</v>
+        <v>12.52088019557939</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25751,28 +25751,28 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>11.92673027430385</v>
+        <v>13.12250269561243</v>
       </c>
       <c r="R42" t="n">
-        <v>83.39434727764332</v>
+        <v>83.97596335777126</v>
       </c>
       <c r="S42" t="n">
-        <v>153.0495430615541</v>
+        <v>55.89285276005364</v>
       </c>
       <c r="T42" t="n">
-        <v>196.1212094100852</v>
+        <v>196.158967617039</v>
       </c>
       <c r="U42" t="n">
-        <v>123.9724923012152</v>
+        <v>128.5453093827213</v>
       </c>
       <c r="V42" t="n">
-        <v>130.8976960522239</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>149.7920920637182</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>116.0169187250626</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
         <v>205.6826957773044</v>
@@ -25797,52 +25797,52 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>144.4259047136882</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>167.1499469665141</v>
+        <v>167.1578004903565</v>
       </c>
       <c r="H43" t="n">
-        <v>154.7496299681496</v>
+        <v>154.8194549346757</v>
       </c>
       <c r="I43" t="n">
-        <v>130.1583371767766</v>
+        <v>130.3945140574189</v>
       </c>
       <c r="J43" t="n">
-        <v>67.53443132890757</v>
+        <v>68.08967546456509</v>
       </c>
       <c r="K43" t="n">
-        <v>31.30058572459949</v>
+        <v>32.21302240374352</v>
       </c>
       <c r="L43" t="n">
-        <v>9.846096846118087</v>
+        <v>11.01370165446875</v>
       </c>
       <c r="M43" t="n">
-        <v>7.090133635768382</v>
+        <v>8.321209195899883</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>0.1864545855454907</v>
       </c>
       <c r="O43" t="n">
-        <v>19.58043272497173</v>
+        <v>20.69049262225901</v>
       </c>
       <c r="P43" t="n">
-        <v>36.00895911794802</v>
+        <v>36.95880712885038</v>
       </c>
       <c r="Q43" t="n">
-        <v>81.08000742760579</v>
+        <v>81.73763295589967</v>
       </c>
       <c r="R43" t="n">
-        <v>139.4775167357298</v>
+        <v>139.8306397259526</v>
       </c>
       <c r="S43" t="n">
-        <v>209.3596971700819</v>
+        <v>209.4965626719535</v>
       </c>
       <c r="T43" t="n">
-        <v>224.3520873899724</v>
+        <v>224.3856433554809</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2731548623848</v>
+        <v>286.2735832364126</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25867,10 +25867,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>267.9422014624894</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>257.3523513121648</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -25879,16 +25879,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>413.4278000675836</v>
+        <v>413.4453081518006</v>
       </c>
       <c r="H44" t="n">
-        <v>320.2730989810314</v>
+        <v>320.4524036485182</v>
       </c>
       <c r="I44" t="n">
-        <v>138.1923636236805</v>
+        <v>138.8673440404544</v>
       </c>
       <c r="J44" t="n">
-        <v>21.91293233757057</v>
+        <v>23.39890910037886</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25909,31 +25909,31 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>19.83353858518319</v>
+        <v>21.72421471466623</v>
       </c>
       <c r="R44" t="n">
-        <v>97.80899837438145</v>
+        <v>98.90879056957436</v>
       </c>
       <c r="S44" t="n">
-        <v>166.2949325001678</v>
+        <v>166.6938979692615</v>
       </c>
       <c r="T44" t="n">
-        <v>112.9854197902737</v>
+        <v>129.236080502392</v>
       </c>
       <c r="U44" t="n">
-        <v>149.292766814831</v>
+        <v>251.1970585587697</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>259.4849022389981</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>272.4004103699509</v>
       </c>
       <c r="Y44" t="n">
-        <v>284.3350475588522</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25946,28 +25946,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>94.87916278420462</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>45.54217446743738</v>
+        <v>50.11437525612058</v>
       </c>
       <c r="E45" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>43.1663212961825</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>34.43744609112363</v>
+        <v>136.3497048392341</v>
       </c>
       <c r="H45" t="n">
-        <v>102.5468376369431</v>
+        <v>102.6373094233546</v>
       </c>
       <c r="I45" t="n">
-        <v>64.98306946117428</v>
+        <v>65.30559603852696</v>
       </c>
       <c r="J45" t="n">
-        <v>32.05911860082659</v>
+        <v>32.94415618079525</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25988,31 +25988,31 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>13.12250269561243</v>
       </c>
       <c r="R45" t="n">
-        <v>83.39434727764332</v>
+        <v>83.97596335777126</v>
       </c>
       <c r="S45" t="n">
-        <v>153.0495430615541</v>
+        <v>153.2235430685718</v>
       </c>
       <c r="T45" t="n">
-        <v>196.1212094100852</v>
+        <v>196.158967617039</v>
       </c>
       <c r="U45" t="n">
-        <v>225.8753833984165</v>
+        <v>128.5453093827213</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>165.9661111371768</v>
       </c>
       <c r="X45" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>108.3520054687862</v>
       </c>
     </row>
     <row r="46">
@@ -26034,52 +26034,52 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>144.4259047136882</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>167.1499469665141</v>
+        <v>167.1578004903565</v>
       </c>
       <c r="H46" t="n">
-        <v>154.7496299681496</v>
+        <v>154.8194549346757</v>
       </c>
       <c r="I46" t="n">
-        <v>130.1583371767766</v>
+        <v>130.3945140574189</v>
       </c>
       <c r="J46" t="n">
-        <v>67.53443132890757</v>
+        <v>68.08967546456509</v>
       </c>
       <c r="K46" t="n">
-        <v>31.30058572459949</v>
+        <v>32.21302240374352</v>
       </c>
       <c r="L46" t="n">
-        <v>9.846096846118087</v>
+        <v>11.01370165446875</v>
       </c>
       <c r="M46" t="n">
-        <v>7.090133635768382</v>
+        <v>8.321209195899883</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>0.1864545855454907</v>
       </c>
       <c r="O46" t="n">
-        <v>19.58043272497173</v>
+        <v>20.69049262225901</v>
       </c>
       <c r="P46" t="n">
-        <v>36.00895911794802</v>
+        <v>36.95880712885038</v>
       </c>
       <c r="Q46" t="n">
-        <v>81.08000742760579</v>
+        <v>81.73763295589967</v>
       </c>
       <c r="R46" t="n">
-        <v>139.4775167357298</v>
+        <v>139.8306397259526</v>
       </c>
       <c r="S46" t="n">
-        <v>209.3596971700819</v>
+        <v>209.4965626719535</v>
       </c>
       <c r="T46" t="n">
-        <v>224.3520873899724</v>
+        <v>224.3856433554809</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2731548623848</v>
+        <v>286.2735832364126</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>358051.8747375345</v>
+        <v>383142.0922340969</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>383142.0922340969</v>
+        <v>383142.0922340968</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>391557.1809093737</v>
+        <v>387392.5836113452</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>391557.1809093736</v>
+        <v>387392.5836113452</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>391557.1809093737</v>
+        <v>387392.5836113453</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>391557.1809093737</v>
+        <v>387392.5836113452</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>391557.1809093737</v>
+        <v>387392.5836113452</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>391557.1809093738</v>
+        <v>387392.5836113452</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>391557.1809093737</v>
+        <v>387392.5836113453</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>391557.1809093739</v>
+        <v>387392.5836113452</v>
       </c>
     </row>
   </sheetData>
@@ -26322,40 +26322,40 @@
         <v>66735.5983353707</v>
       </c>
       <c r="E2" t="n">
-        <v>89512.96868438354</v>
+        <v>89512.96868438351</v>
       </c>
       <c r="F2" t="n">
-        <v>89512.96868438351</v>
+        <v>95785.52305852411</v>
       </c>
       <c r="G2" t="n">
         <v>95785.52305852409</v>
       </c>
       <c r="H2" t="n">
-        <v>95785.52305852412</v>
+        <v>95785.52305852411</v>
       </c>
       <c r="I2" t="n">
-        <v>97889.29522734335</v>
+        <v>96848.14590283622</v>
       </c>
       <c r="J2" t="n">
-        <v>97889.29522734335</v>
+        <v>96848.14590283623</v>
       </c>
       <c r="K2" t="n">
-        <v>97889.29522734335</v>
+        <v>96848.14590283623</v>
       </c>
       <c r="L2" t="n">
-        <v>97889.29522734335</v>
+        <v>96848.14590283623</v>
       </c>
       <c r="M2" t="n">
-        <v>97889.29522734335</v>
+        <v>96848.14590283622</v>
       </c>
       <c r="N2" t="n">
-        <v>97889.29522734335</v>
+        <v>96848.14590283623</v>
       </c>
       <c r="O2" t="n">
-        <v>97889.29522734335</v>
+        <v>96848.1459028362</v>
       </c>
       <c r="P2" t="n">
-        <v>97889.29522734335</v>
+        <v>96848.14590283622</v>
       </c>
     </row>
     <row r="3">
@@ -26377,16 +26377,16 @@
         <v>111004.8835288966</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>26699.26581026791</v>
       </c>
       <c r="G3" t="n">
-        <v>26039.63944955212</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>9080.280680978436</v>
+        <v>4586.112244602763</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26401,10 +26401,10 @@
         <v>15950.37462783567</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>7019.524037838835</v>
       </c>
       <c r="O3" t="n">
-        <v>6896.975340529846</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26429,7 +26429,7 @@
         <v>46.37862202960973</v>
       </c>
       <c r="F4" t="n">
-        <v>46.37862202960973</v>
+        <v>67.14558386063672</v>
       </c>
       <c r="G4" t="n">
         <v>67.14558386063672</v>
@@ -26438,28 +26438,28 @@
         <v>67.14558386063672</v>
       </c>
       <c r="I4" t="n">
-        <v>73.87600503728825</v>
+        <v>70.52640808052382</v>
       </c>
       <c r="J4" t="n">
-        <v>73.87600503728825</v>
+        <v>70.52640808052381</v>
       </c>
       <c r="K4" t="n">
-        <v>73.87600503728825</v>
+        <v>70.52640808052382</v>
       </c>
       <c r="L4" t="n">
-        <v>73.87600503728825</v>
+        <v>70.52640808052382</v>
       </c>
       <c r="M4" t="n">
-        <v>73.87600503728825</v>
+        <v>70.52640808052379</v>
       </c>
       <c r="N4" t="n">
-        <v>73.87600503728825</v>
+        <v>70.52640808052381</v>
       </c>
       <c r="O4" t="n">
-        <v>73.87600503728825</v>
+        <v>70.52640808052379</v>
       </c>
       <c r="P4" t="n">
-        <v>73.87600503728825</v>
+        <v>70.52640808052382</v>
       </c>
     </row>
     <row r="5">
@@ -26481,7 +26481,7 @@
         <v>13357.13748840697</v>
       </c>
       <c r="F5" t="n">
-        <v>13357.13748840697</v>
+        <v>15609.51966583622</v>
       </c>
       <c r="G5" t="n">
         <v>15609.51966583622</v>
@@ -26490,28 +26490,28 @@
         <v>15609.51966583622</v>
       </c>
       <c r="I5" t="n">
-        <v>16363.0128224192</v>
+        <v>15990.0810507798</v>
       </c>
       <c r="J5" t="n">
-        <v>16363.0128224192</v>
+        <v>15990.0810507798</v>
       </c>
       <c r="K5" t="n">
-        <v>16363.0128224192</v>
+        <v>15990.0810507798</v>
       </c>
       <c r="L5" t="n">
-        <v>16363.0128224192</v>
+        <v>15990.0810507798</v>
       </c>
       <c r="M5" t="n">
-        <v>16363.0128224192</v>
+        <v>15990.0810507798</v>
       </c>
       <c r="N5" t="n">
-        <v>16363.0128224192</v>
+        <v>15990.0810507798</v>
       </c>
       <c r="O5" t="n">
-        <v>16363.0128224192</v>
+        <v>15990.0810507798</v>
       </c>
       <c r="P5" t="n">
-        <v>16363.0128224192</v>
+        <v>15990.0810507798</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-282047.988048441</v>
+        <v>-297807.2038425216</v>
       </c>
       <c r="C6" t="n">
-        <v>26135.89577211336</v>
+        <v>10376.67997803275</v>
       </c>
       <c r="D6" t="n">
-        <v>26135.89577211337</v>
+        <v>10376.67997803276</v>
       </c>
       <c r="E6" t="n">
-        <v>-34895.43095494962</v>
+        <v>-49027.69172410078</v>
       </c>
       <c r="F6" t="n">
-        <v>76109.45257394692</v>
+        <v>39725.37082756114</v>
       </c>
       <c r="G6" t="n">
-        <v>54069.21835927512</v>
+        <v>66424.63663782901</v>
       </c>
       <c r="H6" t="n">
-        <v>80108.85780882726</v>
+        <v>66424.63663782904</v>
       </c>
       <c r="I6" t="n">
-        <v>72372.12571890841</v>
+        <v>62593.10666011149</v>
       </c>
       <c r="J6" t="n">
-        <v>81452.40639988685</v>
+        <v>67179.21890471427</v>
       </c>
       <c r="K6" t="n">
-        <v>81452.40639988685</v>
+        <v>67179.21890471427</v>
       </c>
       <c r="L6" t="n">
-        <v>81452.40639988685</v>
+        <v>67179.21890471426</v>
       </c>
       <c r="M6" t="n">
-        <v>65502.03177205118</v>
+        <v>51228.84427687858</v>
       </c>
       <c r="N6" t="n">
-        <v>81452.40639988685</v>
+        <v>60159.69486687543</v>
       </c>
       <c r="O6" t="n">
-        <v>74555.43105935701</v>
+        <v>67179.21890471423</v>
       </c>
       <c r="P6" t="n">
-        <v>81452.40639988685</v>
+        <v>67179.21890471425</v>
       </c>
     </row>
   </sheetData>
@@ -26749,7 +26749,7 @@
         <v>434.2025584301815</v>
       </c>
       <c r="F3" t="n">
-        <v>434.2025584301815</v>
+        <v>457.5913187641655</v>
       </c>
       <c r="G3" t="n">
         <v>457.5913187641655</v>
@@ -26758,28 +26758,28 @@
         <v>457.5913187641655</v>
       </c>
       <c r="I3" t="n">
-        <v>466.3906900784109</v>
+        <v>462.0355541294448</v>
       </c>
       <c r="J3" t="n">
-        <v>466.3906900784109</v>
+        <v>462.0355541294448</v>
       </c>
       <c r="K3" t="n">
-        <v>466.3906900784109</v>
+        <v>462.0355541294448</v>
       </c>
       <c r="L3" t="n">
-        <v>466.3906900784109</v>
+        <v>462.0355541294448</v>
       </c>
       <c r="M3" t="n">
-        <v>466.3906900784109</v>
+        <v>462.0355541294448</v>
       </c>
       <c r="N3" t="n">
-        <v>466.3906900784109</v>
+        <v>462.0355541294448</v>
       </c>
       <c r="O3" t="n">
-        <v>466.3906900784109</v>
+        <v>462.0355541294448</v>
       </c>
       <c r="P3" t="n">
-        <v>466.3906900784109</v>
+        <v>462.0355541294448</v>
       </c>
     </row>
     <row r="4">
@@ -26801,7 +26801,7 @@
         <v>64.00529135902983</v>
       </c>
       <c r="F4" t="n">
-        <v>64.00529135902983</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="G4" t="n">
         <v>92.6649492891022</v>
@@ -26810,28 +26810,28 @@
         <v>92.6649492891022</v>
       </c>
       <c r="I4" t="n">
-        <v>101.9028910972014</v>
+        <v>97.33069030851817</v>
       </c>
       <c r="J4" t="n">
-        <v>101.9028910972014</v>
+        <v>97.33069030851817</v>
       </c>
       <c r="K4" t="n">
-        <v>101.9028910972014</v>
+        <v>97.33069030851817</v>
       </c>
       <c r="L4" t="n">
-        <v>101.9028910972014</v>
+        <v>97.33069030851817</v>
       </c>
       <c r="M4" t="n">
-        <v>101.9028910972014</v>
+        <v>97.33069030851817</v>
       </c>
       <c r="N4" t="n">
-        <v>101.9028910972014</v>
+        <v>97.33069030851817</v>
       </c>
       <c r="O4" t="n">
-        <v>101.9028910972014</v>
+        <v>97.33069030851817</v>
       </c>
       <c r="P4" t="n">
-        <v>101.9028910972014</v>
+        <v>97.33069030851817</v>
       </c>
     </row>
   </sheetData>
@@ -26971,16 +26971,16 @@
         <v>114.3813399321389</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>23.38876033398401</v>
       </c>
       <c r="G3" t="n">
-        <v>23.38876033398401</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>8.799371314245377</v>
+        <v>4.444235365279326</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27023,16 +27023,16 @@
         <v>64.00529135902983</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>28.65965793007237</v>
       </c>
       <c r="G4" t="n">
-        <v>28.65965793007237</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>9.23794180809918</v>
+        <v>4.665741019415975</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27047,10 +27047,10 @@
         <v>64.00529135902983</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>28.65965793007237</v>
       </c>
       <c r="O4" t="n">
-        <v>28.65965793007237</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27269,10 +27269,10 @@
         <v>64.00529135902983</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>28.65965793007237</v>
       </c>
       <c r="O4" t="n">
-        <v>28.65965793007237</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31846,7 +31846,7 @@
         <v>150.811656544566</v>
       </c>
       <c r="L12" t="n">
-        <v>142.6352321055144</v>
+        <v>202.559671138904</v>
       </c>
       <c r="M12" t="n">
         <v>206.1393252810481</v>
@@ -31855,10 +31855,10 @@
         <v>195.3470034423631</v>
       </c>
       <c r="O12" t="n">
-        <v>206.6015358034743</v>
+        <v>191.0452458551246</v>
       </c>
       <c r="P12" t="n">
-        <v>178.3425564993702</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>119.2172760429434</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.745537923337412</v>
+        <v>1.839563090509207</v>
       </c>
       <c r="H14" t="n">
-        <v>17.87649025737927</v>
+        <v>18.83942550067742</v>
       </c>
       <c r="I14" t="n">
-        <v>67.29485078946563</v>
+        <v>70.91975604685626</v>
       </c>
       <c r="J14" t="n">
-        <v>148.1503493208588</v>
+        <v>156.1306178531059</v>
       </c>
       <c r="K14" t="n">
-        <v>222.0389696157315</v>
+        <v>233.9993234743607</v>
       </c>
       <c r="L14" t="n">
-        <v>275.4589758370689</v>
+        <v>290.2968524055319</v>
       </c>
       <c r="M14" t="n">
-        <v>294.3515245863026</v>
+        <v>323.011182516375</v>
       </c>
       <c r="N14" t="n">
-        <v>293.4183549556208</v>
+        <v>322.0780128856931</v>
       </c>
       <c r="O14" t="n">
-        <v>294.1035027807166</v>
+        <v>309.9456856660333</v>
       </c>
       <c r="P14" t="n">
-        <v>251.0105352983242</v>
+        <v>264.5314718690873</v>
       </c>
       <c r="Q14" t="n">
-        <v>188.4984584188031</v>
+        <v>198.6521186902262</v>
       </c>
       <c r="R14" t="n">
-        <v>109.6481465768438</v>
+        <v>115.5544549841991</v>
       </c>
       <c r="S14" t="n">
-        <v>39.77644542805131</v>
+        <v>41.91904392497859</v>
       </c>
       <c r="T14" t="n">
-        <v>7.641092259409524</v>
+        <v>8.052687428704056</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1396430338669929</v>
+        <v>0.1471650472407365</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9339451256800131</v>
+        <v>0.9842530252663183</v>
       </c>
       <c r="H15" t="n">
-        <v>9.019943713804338</v>
+        <v>9.505812112440497</v>
       </c>
       <c r="I15" t="n">
-        <v>32.1555668271408</v>
+        <v>33.88765898395</v>
       </c>
       <c r="J15" t="n">
-        <v>88.2373331240051</v>
+        <v>92.99032639149897</v>
       </c>
       <c r="K15" t="n">
-        <v>150.811656544566</v>
+        <v>152.6909941347884</v>
       </c>
       <c r="L15" t="n">
-        <v>202.559671138904</v>
+        <v>213.7080965605662</v>
       </c>
       <c r="M15" t="n">
-        <v>206.1393252810481</v>
+        <v>234.7989832111205</v>
       </c>
       <c r="N15" t="n">
-        <v>135.4225644089735</v>
+        <v>224.0066613724355</v>
       </c>
       <c r="O15" t="n">
-        <v>206.6015358034743</v>
+        <v>234.1788327264121</v>
       </c>
       <c r="P15" t="n">
-        <v>178.3425564993702</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>119.2172760429434</v>
+        <v>125.6390352953988</v>
       </c>
       <c r="R15" t="n">
-        <v>57.98652280318539</v>
+        <v>61.11002555118424</v>
       </c>
       <c r="S15" t="n">
-        <v>17.34762108445111</v>
+        <v>18.28206825439849</v>
       </c>
       <c r="T15" t="n">
-        <v>3.764454256578648</v>
+        <v>3.967230395700641</v>
       </c>
       <c r="U15" t="n">
-        <v>0.06144375826842194</v>
+        <v>0.06475348850436308</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.7829882201199994</v>
+        <v>0.8251646731812819</v>
       </c>
       <c r="H16" t="n">
-        <v>6.961477084339636</v>
+        <v>7.336464094284494</v>
       </c>
       <c r="I16" t="n">
-        <v>23.5465912014269</v>
+        <v>24.81495217166983</v>
       </c>
       <c r="J16" t="n">
-        <v>55.35726716248395</v>
+        <v>58.33914239391663</v>
       </c>
       <c r="K16" t="n">
-        <v>90.96899502848719</v>
+        <v>95.8691320296071</v>
       </c>
       <c r="L16" t="n">
-        <v>116.4089941076588</v>
+        <v>122.6794824109699</v>
       </c>
       <c r="M16" t="n">
-        <v>122.7369625411741</v>
+        <v>129.3483132696804</v>
       </c>
       <c r="N16" t="n">
-        <v>119.8185519025451</v>
+        <v>126.272699487823</v>
       </c>
       <c r="O16" t="n">
-        <v>110.6718258765978</v>
+        <v>116.6332758056598</v>
       </c>
       <c r="P16" t="n">
-        <v>94.6988661861497</v>
+        <v>99.79991647276155</v>
       </c>
       <c r="Q16" t="n">
-        <v>65.56458632295741</v>
+        <v>69.09628913338899</v>
       </c>
       <c r="R16" t="n">
-        <v>35.20599760648651</v>
+        <v>37.102404305042</v>
       </c>
       <c r="S16" t="n">
-        <v>13.64534925427307</v>
+        <v>14.38036980444106</v>
       </c>
       <c r="T16" t="n">
-        <v>3.345495122330906</v>
+        <v>3.52570360359275</v>
       </c>
       <c r="U16" t="n">
-        <v>0.04270844837018183</v>
+        <v>0.04500898217352452</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32244,7 +32244,7 @@
         <v>290.2968524055319</v>
       </c>
       <c r="M17" t="n">
-        <v>323.0111825163749</v>
+        <v>323.011182516375</v>
       </c>
       <c r="N17" t="n">
         <v>322.0780128856931</v>
@@ -32329,10 +32329,10 @@
         <v>224.0066613724355</v>
       </c>
       <c r="O18" t="n">
-        <v>173.959796357658</v>
+        <v>227.9345477768583</v>
       </c>
       <c r="P18" t="n">
-        <v>187.9491588335306</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>125.6390352953988</v>
@@ -32481,7 +32481,7 @@
         <v>290.2968524055319</v>
       </c>
       <c r="M20" t="n">
-        <v>323.011182516375</v>
+        <v>323.0111825163749</v>
       </c>
       <c r="N20" t="n">
         <v>322.0780128856931</v>
@@ -32560,13 +32560,13 @@
         <v>213.7080965605662</v>
       </c>
       <c r="M21" t="n">
-        <v>234.7989832111205</v>
+        <v>174.5799468423664</v>
       </c>
       <c r="N21" t="n">
         <v>224.0066613724355</v>
       </c>
       <c r="O21" t="n">
-        <v>173.959796357658</v>
+        <v>234.1788327264121</v>
       </c>
       <c r="P21" t="n">
         <v>187.9491588335306</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.874937447551399</v>
+        <v>1.85742936333445</v>
       </c>
       <c r="H23" t="n">
-        <v>19.20170313473577</v>
+        <v>19.02239846724894</v>
       </c>
       <c r="I23" t="n">
-        <v>72.28352594672539</v>
+        <v>71.60854552995146</v>
       </c>
       <c r="J23" t="n">
-        <v>159.1329721891157</v>
+        <v>157.6469954263074</v>
       </c>
       <c r="K23" t="n">
-        <v>238.4990743439665</v>
+        <v>236.2719803762548</v>
       </c>
       <c r="L23" t="n">
-        <v>295.8791912544677</v>
+        <v>293.1162842544015</v>
       </c>
       <c r="M23" t="n">
-        <v>329.2226100873598</v>
+        <v>326.1483436946005</v>
       </c>
       <c r="N23" t="n">
-        <v>331.3159546937923</v>
+        <v>326.7437539051091</v>
       </c>
       <c r="O23" t="n">
-        <v>315.9058668661261</v>
+        <v>312.9559516415176</v>
       </c>
       <c r="P23" t="n">
-        <v>269.6183486297008</v>
+        <v>267.1006642341983</v>
       </c>
       <c r="Q23" t="n">
-        <v>202.4721512892663</v>
+        <v>200.5814751597833</v>
       </c>
       <c r="R23" t="n">
-        <v>117.7765394397507</v>
+        <v>116.6767472445578</v>
       </c>
       <c r="S23" t="n">
-        <v>42.72513708607755</v>
+        <v>42.32617161698383</v>
       </c>
       <c r="T23" t="n">
-        <v>8.207538676656254</v>
+        <v>8.13089703799656</v>
       </c>
       <c r="U23" t="n">
-        <v>0.1499949958041119</v>
+        <v>0.148594349066756</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.003179974885638</v>
+        <v>0.9938123239765417</v>
       </c>
       <c r="H24" t="n">
-        <v>9.688606599553406</v>
+        <v>9.598134813141865</v>
       </c>
       <c r="I24" t="n">
-        <v>34.53931053882572</v>
+        <v>34.21678396147304</v>
       </c>
       <c r="J24" t="n">
-        <v>94.7785080658401</v>
+        <v>93.89347048587145</v>
       </c>
       <c r="K24" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>184.5681137065377</v>
+        <v>215.7836802563978</v>
       </c>
       <c r="M24" t="n">
-        <v>244.0369250192197</v>
+        <v>239.4647242305365</v>
       </c>
       <c r="N24" t="n">
-        <v>233.2446031805347</v>
+        <v>228.6724023918515</v>
       </c>
       <c r="O24" t="n">
-        <v>238.6820355158826</v>
+        <v>200.2956132358129</v>
       </c>
       <c r="P24" t="n">
-        <v>191.5633760814515</v>
+        <v>189.7745656196959</v>
       </c>
       <c r="Q24" t="n">
-        <v>128.0550438117177</v>
+        <v>126.8592713904091</v>
       </c>
       <c r="R24" t="n">
-        <v>62.28515668632063</v>
+        <v>61.70354060619268</v>
       </c>
       <c r="S24" t="n">
-        <v>18.63362804228367</v>
+        <v>18.45962803526601</v>
       </c>
       <c r="T24" t="n">
-        <v>4.04351928473641</v>
+        <v>4.005761077782639</v>
       </c>
       <c r="U24" t="n">
-        <v>0.06599868255826573</v>
+        <v>0.06538238973529882</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8410323919446753</v>
+        <v>0.8331788681022775</v>
       </c>
       <c r="H25" t="n">
-        <v>7.477542539289937</v>
+        <v>7.40771757276389</v>
       </c>
       <c r="I25" t="n">
-        <v>25.2921377504817</v>
+        <v>25.05596086983941</v>
       </c>
       <c r="J25" t="n">
-        <v>59.46099011048854</v>
+        <v>58.90574597483101</v>
       </c>
       <c r="K25" t="n">
-        <v>97.71267244593589</v>
+        <v>96.80023576679186</v>
       </c>
       <c r="L25" t="n">
-        <v>125.0385794351202</v>
+        <v>123.8709746267695</v>
       </c>
       <c r="M25" t="n">
-        <v>131.8356503118367</v>
+        <v>130.6045747517052</v>
       </c>
       <c r="N25" t="n">
-        <v>128.7008932145884</v>
+        <v>127.4990898796877</v>
       </c>
       <c r="O25" t="n">
-        <v>118.8761057268711</v>
+        <v>117.7660458295838</v>
       </c>
       <c r="P25" t="n">
-        <v>101.7190449311996</v>
+        <v>100.7691969202972</v>
       </c>
       <c r="Q25" t="n">
-        <v>70.42499420184005</v>
+        <v>69.76736867354617</v>
       </c>
       <c r="R25" t="n">
-        <v>37.81587464143966</v>
+        <v>37.46275165121694</v>
       </c>
       <c r="S25" t="n">
-        <v>14.65690086689038</v>
+        <v>14.52003536501878</v>
       </c>
       <c r="T25" t="n">
-        <v>3.593502038309066</v>
+        <v>3.559946072800639</v>
       </c>
       <c r="U25" t="n">
-        <v>0.04587449410607325</v>
+        <v>0.0454461200783061</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.874937447551399</v>
+        <v>1.85742936333445</v>
       </c>
       <c r="H26" t="n">
-        <v>19.20170313473577</v>
+        <v>19.02239846724894</v>
       </c>
       <c r="I26" t="n">
-        <v>72.28352594672539</v>
+        <v>71.60854552995146</v>
       </c>
       <c r="J26" t="n">
-        <v>159.1329721891157</v>
+        <v>157.6469954263074</v>
       </c>
       <c r="K26" t="n">
-        <v>238.4990743439665</v>
+        <v>236.2719803762548</v>
       </c>
       <c r="L26" t="n">
-        <v>295.8791912544677</v>
+        <v>293.1162842544015</v>
       </c>
       <c r="M26" t="n">
-        <v>329.2226100873598</v>
+        <v>326.1483436946005</v>
       </c>
       <c r="N26" t="n">
-        <v>331.3159546937923</v>
+        <v>326.7437539051091</v>
       </c>
       <c r="O26" t="n">
-        <v>315.9058668661261</v>
+        <v>312.9559516415176</v>
       </c>
       <c r="P26" t="n">
-        <v>269.6183486297008</v>
+        <v>267.1006642341983</v>
       </c>
       <c r="Q26" t="n">
-        <v>202.4721512892663</v>
+        <v>200.5814751597833</v>
       </c>
       <c r="R26" t="n">
-        <v>117.7765394397507</v>
+        <v>116.6767472445578</v>
       </c>
       <c r="S26" t="n">
-        <v>42.72513708607755</v>
+        <v>42.32617161698383</v>
       </c>
       <c r="T26" t="n">
-        <v>8.207538676656254</v>
+        <v>8.13089703799656</v>
       </c>
       <c r="U26" t="n">
-        <v>0.1499949958041119</v>
+        <v>0.148594349066756</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.003179974885638</v>
+        <v>0.9938123239765417</v>
       </c>
       <c r="H27" t="n">
-        <v>9.688606599553406</v>
+        <v>9.598134813141865</v>
       </c>
       <c r="I27" t="n">
-        <v>34.53931053882572</v>
+        <v>34.21678396147304</v>
       </c>
       <c r="J27" t="n">
-        <v>94.7785080658401</v>
+        <v>93.89347048587145</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>160.4788961922997</v>
       </c>
       <c r="L27" t="n">
-        <v>217.8176520031296</v>
+        <v>215.7836802563978</v>
       </c>
       <c r="M27" t="n">
-        <v>244.0369250192197</v>
+        <v>239.4647242305365</v>
       </c>
       <c r="N27" t="n">
-        <v>233.2446031805347</v>
+        <v>169.8773253450067</v>
       </c>
       <c r="O27" t="n">
-        <v>205.4324972192907</v>
+        <v>236.4532330647169</v>
       </c>
       <c r="P27" t="n">
-        <v>191.5633760814515</v>
+        <v>189.7745656196959</v>
       </c>
       <c r="Q27" t="n">
-        <v>128.0550438117177</v>
+        <v>126.8592713904091</v>
       </c>
       <c r="R27" t="n">
-        <v>62.28515668632063</v>
+        <v>61.70354060619268</v>
       </c>
       <c r="S27" t="n">
-        <v>18.63362804228367</v>
+        <v>18.45962803526601</v>
       </c>
       <c r="T27" t="n">
-        <v>4.04351928473641</v>
+        <v>4.005761077782639</v>
       </c>
       <c r="U27" t="n">
-        <v>0.06599868255826573</v>
+        <v>0.06538238973529882</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8410323919446753</v>
+        <v>0.8331788681022775</v>
       </c>
       <c r="H28" t="n">
-        <v>7.477542539289937</v>
+        <v>7.40771757276389</v>
       </c>
       <c r="I28" t="n">
-        <v>25.2921377504817</v>
+        <v>25.05596086983941</v>
       </c>
       <c r="J28" t="n">
-        <v>59.46099011048854</v>
+        <v>58.90574597483101</v>
       </c>
       <c r="K28" t="n">
-        <v>97.71267244593589</v>
+        <v>96.80023576679186</v>
       </c>
       <c r="L28" t="n">
-        <v>125.0385794351202</v>
+        <v>123.8709746267695</v>
       </c>
       <c r="M28" t="n">
-        <v>131.8356503118367</v>
+        <v>130.6045747517052</v>
       </c>
       <c r="N28" t="n">
-        <v>128.7008932145884</v>
+        <v>127.4990898796877</v>
       </c>
       <c r="O28" t="n">
-        <v>118.8761057268711</v>
+        <v>117.7660458295838</v>
       </c>
       <c r="P28" t="n">
-        <v>101.7190449311996</v>
+        <v>100.7691969202972</v>
       </c>
       <c r="Q28" t="n">
-        <v>70.42499420184005</v>
+        <v>69.76736867354617</v>
       </c>
       <c r="R28" t="n">
-        <v>37.81587464143966</v>
+        <v>37.46275165121694</v>
       </c>
       <c r="S28" t="n">
-        <v>14.65690086689038</v>
+        <v>14.52003536501878</v>
       </c>
       <c r="T28" t="n">
-        <v>3.593502038309066</v>
+        <v>3.559946072800639</v>
       </c>
       <c r="U28" t="n">
-        <v>0.04587449410607325</v>
+        <v>0.0454461200783061</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.874937447551399</v>
+        <v>1.85742936333445</v>
       </c>
       <c r="H29" t="n">
-        <v>19.20170313473577</v>
+        <v>19.02239846724894</v>
       </c>
       <c r="I29" t="n">
-        <v>72.28352594672539</v>
+        <v>71.60854552995146</v>
       </c>
       <c r="J29" t="n">
-        <v>159.1329721891157</v>
+        <v>157.6469954263074</v>
       </c>
       <c r="K29" t="n">
-        <v>238.4990743439665</v>
+        <v>236.2719803762548</v>
       </c>
       <c r="L29" t="n">
-        <v>295.8791912544677</v>
+        <v>293.1162842544015</v>
       </c>
       <c r="M29" t="n">
-        <v>329.2226100873598</v>
+        <v>326.1483436946005</v>
       </c>
       <c r="N29" t="n">
-        <v>331.3159546937923</v>
+        <v>326.7437539051091</v>
       </c>
       <c r="O29" t="n">
-        <v>315.9058668661261</v>
+        <v>312.9559516415176</v>
       </c>
       <c r="P29" t="n">
-        <v>269.6183486297008</v>
+        <v>267.1006642341983</v>
       </c>
       <c r="Q29" t="n">
-        <v>202.4721512892663</v>
+        <v>200.5814751597833</v>
       </c>
       <c r="R29" t="n">
-        <v>117.7765394397507</v>
+        <v>116.6767472445578</v>
       </c>
       <c r="S29" t="n">
-        <v>42.72513708607755</v>
+        <v>42.32617161698383</v>
       </c>
       <c r="T29" t="n">
-        <v>8.207538676656254</v>
+        <v>8.13089703799656</v>
       </c>
       <c r="U29" t="n">
-        <v>0.1499949958041119</v>
+        <v>0.148594349066756</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.003179974885638</v>
+        <v>0.9938123239765417</v>
       </c>
       <c r="H30" t="n">
-        <v>9.688606599553406</v>
+        <v>9.598134813141865</v>
       </c>
       <c r="I30" t="n">
-        <v>34.53931053882572</v>
+        <v>34.21678396147304</v>
       </c>
       <c r="J30" t="n">
-        <v>94.7785080658401</v>
+        <v>93.89347048587145</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>160.4788961922997</v>
       </c>
       <c r="L30" t="n">
-        <v>217.8176520031296</v>
+        <v>156.9886032095531</v>
       </c>
       <c r="M30" t="n">
-        <v>210.7873867226278</v>
+        <v>239.4647242305365</v>
       </c>
       <c r="N30" t="n">
-        <v>233.2446031805347</v>
+        <v>228.6724023918515</v>
       </c>
       <c r="O30" t="n">
-        <v>238.6820355158826</v>
+        <v>236.4532330647169</v>
       </c>
       <c r="P30" t="n">
-        <v>191.5633760814515</v>
+        <v>189.7745656196959</v>
       </c>
       <c r="Q30" t="n">
-        <v>128.0550438117177</v>
+        <v>126.8592713904091</v>
       </c>
       <c r="R30" t="n">
-        <v>62.28515668632063</v>
+        <v>61.70354060619268</v>
       </c>
       <c r="S30" t="n">
-        <v>18.63362804228367</v>
+        <v>18.45962803526601</v>
       </c>
       <c r="T30" t="n">
-        <v>4.04351928473641</v>
+        <v>4.005761077782639</v>
       </c>
       <c r="U30" t="n">
-        <v>0.06599868255826573</v>
+        <v>0.06538238973529882</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8410323919446753</v>
+        <v>0.8331788681022775</v>
       </c>
       <c r="H31" t="n">
-        <v>7.477542539289937</v>
+        <v>7.40771757276389</v>
       </c>
       <c r="I31" t="n">
-        <v>25.2921377504817</v>
+        <v>25.05596086983941</v>
       </c>
       <c r="J31" t="n">
-        <v>59.46099011048854</v>
+        <v>58.90574597483101</v>
       </c>
       <c r="K31" t="n">
-        <v>97.71267244593589</v>
+        <v>96.80023576679186</v>
       </c>
       <c r="L31" t="n">
-        <v>125.0385794351202</v>
+        <v>123.8709746267695</v>
       </c>
       <c r="M31" t="n">
-        <v>131.8356503118367</v>
+        <v>130.6045747517052</v>
       </c>
       <c r="N31" t="n">
-        <v>128.7008932145884</v>
+        <v>127.4990898796877</v>
       </c>
       <c r="O31" t="n">
-        <v>118.8761057268711</v>
+        <v>117.7660458295838</v>
       </c>
       <c r="P31" t="n">
-        <v>101.7190449311996</v>
+        <v>100.7691969202972</v>
       </c>
       <c r="Q31" t="n">
-        <v>70.42499420184005</v>
+        <v>69.76736867354617</v>
       </c>
       <c r="R31" t="n">
-        <v>37.81587464143966</v>
+        <v>37.46275165121694</v>
       </c>
       <c r="S31" t="n">
-        <v>14.65690086689038</v>
+        <v>14.52003536501878</v>
       </c>
       <c r="T31" t="n">
-        <v>3.593502038309066</v>
+        <v>3.559946072800639</v>
       </c>
       <c r="U31" t="n">
-        <v>0.04587449410607325</v>
+        <v>0.0454461200783061</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.874937447551399</v>
+        <v>1.85742936333445</v>
       </c>
       <c r="H32" t="n">
-        <v>19.20170313473577</v>
+        <v>19.02239846724894</v>
       </c>
       <c r="I32" t="n">
-        <v>72.28352594672539</v>
+        <v>71.60854552995146</v>
       </c>
       <c r="J32" t="n">
-        <v>159.1329721891157</v>
+        <v>157.6469954263074</v>
       </c>
       <c r="K32" t="n">
-        <v>238.4990743439665</v>
+        <v>236.2719803762548</v>
       </c>
       <c r="L32" t="n">
-        <v>295.8791912544677</v>
+        <v>293.1162842544015</v>
       </c>
       <c r="M32" t="n">
-        <v>329.2226100873598</v>
+        <v>326.1483436946005</v>
       </c>
       <c r="N32" t="n">
-        <v>331.3159546937923</v>
+        <v>326.7437539051091</v>
       </c>
       <c r="O32" t="n">
-        <v>315.9058668661261</v>
+        <v>312.9559516415176</v>
       </c>
       <c r="P32" t="n">
-        <v>269.6183486297008</v>
+        <v>267.1006642341983</v>
       </c>
       <c r="Q32" t="n">
-        <v>202.4721512892663</v>
+        <v>200.5814751597833</v>
       </c>
       <c r="R32" t="n">
-        <v>117.7765394397507</v>
+        <v>116.6767472445578</v>
       </c>
       <c r="S32" t="n">
-        <v>42.72513708607755</v>
+        <v>42.32617161698383</v>
       </c>
       <c r="T32" t="n">
-        <v>8.207538676656254</v>
+        <v>8.13089703799656</v>
       </c>
       <c r="U32" t="n">
-        <v>0.1499949958041119</v>
+        <v>0.148594349066756</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.003179974885638</v>
+        <v>0.9938123239765417</v>
       </c>
       <c r="H33" t="n">
-        <v>9.688606599553406</v>
+        <v>9.598134813141865</v>
       </c>
       <c r="I33" t="n">
-        <v>34.53931053882572</v>
+        <v>34.21678396147304</v>
       </c>
       <c r="J33" t="n">
-        <v>94.7785080658401</v>
+        <v>93.89347048587145</v>
       </c>
       <c r="K33" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>217.8176520031296</v>
+        <v>215.7836802563978</v>
       </c>
       <c r="M33" t="n">
-        <v>244.0369250192197</v>
+        <v>203.3071044016325</v>
       </c>
       <c r="N33" t="n">
-        <v>233.2446031805347</v>
+        <v>228.6724023918515</v>
       </c>
       <c r="O33" t="n">
-        <v>238.6820355158826</v>
+        <v>236.4532330647169</v>
       </c>
       <c r="P33" t="n">
-        <v>158.3138377848595</v>
+        <v>189.7745656196959</v>
       </c>
       <c r="Q33" t="n">
-        <v>128.0550438117177</v>
+        <v>126.8592713904091</v>
       </c>
       <c r="R33" t="n">
-        <v>62.28515668632063</v>
+        <v>61.70354060619268</v>
       </c>
       <c r="S33" t="n">
-        <v>18.63362804228367</v>
+        <v>18.45962803526601</v>
       </c>
       <c r="T33" t="n">
-        <v>4.04351928473641</v>
+        <v>4.005761077782639</v>
       </c>
       <c r="U33" t="n">
-        <v>0.06599868255826573</v>
+        <v>0.06538238973529882</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8410323919446753</v>
+        <v>0.8331788681022775</v>
       </c>
       <c r="H34" t="n">
-        <v>7.477542539289937</v>
+        <v>7.40771757276389</v>
       </c>
       <c r="I34" t="n">
-        <v>25.2921377504817</v>
+        <v>25.05596086983941</v>
       </c>
       <c r="J34" t="n">
-        <v>59.46099011048854</v>
+        <v>58.90574597483101</v>
       </c>
       <c r="K34" t="n">
-        <v>97.71267244593589</v>
+        <v>96.80023576679186</v>
       </c>
       <c r="L34" t="n">
-        <v>125.0385794351202</v>
+        <v>123.8709746267695</v>
       </c>
       <c r="M34" t="n">
-        <v>131.8356503118367</v>
+        <v>130.6045747517052</v>
       </c>
       <c r="N34" t="n">
-        <v>128.7008932145884</v>
+        <v>127.4990898796877</v>
       </c>
       <c r="O34" t="n">
-        <v>118.8761057268711</v>
+        <v>117.7660458295838</v>
       </c>
       <c r="P34" t="n">
-        <v>101.7190449311996</v>
+        <v>100.7691969202972</v>
       </c>
       <c r="Q34" t="n">
-        <v>70.42499420184005</v>
+        <v>69.76736867354617</v>
       </c>
       <c r="R34" t="n">
-        <v>37.81587464143966</v>
+        <v>37.46275165121694</v>
       </c>
       <c r="S34" t="n">
-        <v>14.65690086689038</v>
+        <v>14.52003536501878</v>
       </c>
       <c r="T34" t="n">
-        <v>3.593502038309066</v>
+        <v>3.559946072800639</v>
       </c>
       <c r="U34" t="n">
-        <v>0.04587449410607325</v>
+        <v>0.0454461200783061</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.874937447551399</v>
+        <v>1.85742936333445</v>
       </c>
       <c r="H35" t="n">
-        <v>19.20170313473577</v>
+        <v>19.02239846724894</v>
       </c>
       <c r="I35" t="n">
-        <v>72.28352594672539</v>
+        <v>71.60854552995146</v>
       </c>
       <c r="J35" t="n">
-        <v>159.1329721891157</v>
+        <v>157.6469954263074</v>
       </c>
       <c r="K35" t="n">
-        <v>238.4990743439665</v>
+        <v>236.2719803762548</v>
       </c>
       <c r="L35" t="n">
-        <v>295.8791912544677</v>
+        <v>293.1162842544015</v>
       </c>
       <c r="M35" t="n">
-        <v>329.2226100873598</v>
+        <v>326.1483436946005</v>
       </c>
       <c r="N35" t="n">
-        <v>331.3159546937923</v>
+        <v>326.7437539051091</v>
       </c>
       <c r="O35" t="n">
-        <v>315.9058668661261</v>
+        <v>312.9559516415176</v>
       </c>
       <c r="P35" t="n">
-        <v>269.6183486297008</v>
+        <v>267.1006642341983</v>
       </c>
       <c r="Q35" t="n">
-        <v>202.4721512892663</v>
+        <v>200.5814751597833</v>
       </c>
       <c r="R35" t="n">
-        <v>117.7765394397507</v>
+        <v>116.6767472445578</v>
       </c>
       <c r="S35" t="n">
-        <v>42.72513708607755</v>
+        <v>42.32617161698383</v>
       </c>
       <c r="T35" t="n">
-        <v>8.207538676656254</v>
+        <v>8.13089703799656</v>
       </c>
       <c r="U35" t="n">
-        <v>0.1499949958041119</v>
+        <v>0.148594349066756</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.003179974885638</v>
+        <v>0.9938123239765417</v>
       </c>
       <c r="H36" t="n">
-        <v>9.688606599553406</v>
+        <v>9.598134813141865</v>
       </c>
       <c r="I36" t="n">
-        <v>34.53931053882572</v>
+        <v>34.21678396147304</v>
       </c>
       <c r="J36" t="n">
-        <v>94.7785080658401</v>
+        <v>93.89347048587145</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>160.4788961922997</v>
       </c>
       <c r="L36" t="n">
-        <v>184.5681137065377</v>
+        <v>215.7836802563978</v>
       </c>
       <c r="M36" t="n">
-        <v>244.0369250192197</v>
+        <v>239.4647242305365</v>
       </c>
       <c r="N36" t="n">
-        <v>233.2446031805347</v>
+        <v>169.8773253450067</v>
       </c>
       <c r="O36" t="n">
-        <v>238.6820355158826</v>
+        <v>236.4532330647169</v>
       </c>
       <c r="P36" t="n">
-        <v>191.5633760814515</v>
+        <v>189.7745656196959</v>
       </c>
       <c r="Q36" t="n">
-        <v>128.0550438117177</v>
+        <v>126.8592713904091</v>
       </c>
       <c r="R36" t="n">
-        <v>62.28515668632063</v>
+        <v>61.70354060619268</v>
       </c>
       <c r="S36" t="n">
-        <v>18.63362804228367</v>
+        <v>18.45962803526601</v>
       </c>
       <c r="T36" t="n">
-        <v>4.04351928473641</v>
+        <v>4.005761077782639</v>
       </c>
       <c r="U36" t="n">
-        <v>0.06599868255826573</v>
+        <v>0.06538238973529882</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8410323919446753</v>
+        <v>0.8331788681022775</v>
       </c>
       <c r="H37" t="n">
-        <v>7.477542539289937</v>
+        <v>7.40771757276389</v>
       </c>
       <c r="I37" t="n">
-        <v>25.2921377504817</v>
+        <v>25.05596086983941</v>
       </c>
       <c r="J37" t="n">
-        <v>59.46099011048854</v>
+        <v>58.90574597483101</v>
       </c>
       <c r="K37" t="n">
-        <v>97.71267244593589</v>
+        <v>96.80023576679186</v>
       </c>
       <c r="L37" t="n">
-        <v>125.0385794351202</v>
+        <v>123.8709746267695</v>
       </c>
       <c r="M37" t="n">
-        <v>131.8356503118367</v>
+        <v>130.6045747517052</v>
       </c>
       <c r="N37" t="n">
-        <v>128.7008932145884</v>
+        <v>127.4990898796877</v>
       </c>
       <c r="O37" t="n">
-        <v>118.8761057268711</v>
+        <v>117.7660458295838</v>
       </c>
       <c r="P37" t="n">
-        <v>101.7190449311996</v>
+        <v>100.7691969202972</v>
       </c>
       <c r="Q37" t="n">
-        <v>70.42499420184005</v>
+        <v>69.76736867354617</v>
       </c>
       <c r="R37" t="n">
-        <v>37.81587464143966</v>
+        <v>37.46275165121694</v>
       </c>
       <c r="S37" t="n">
-        <v>14.65690086689038</v>
+        <v>14.52003536501878</v>
       </c>
       <c r="T37" t="n">
-        <v>3.593502038309066</v>
+        <v>3.559946072800639</v>
       </c>
       <c r="U37" t="n">
-        <v>0.04587449410607325</v>
+        <v>0.0454461200783061</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.874937447551399</v>
+        <v>1.85742936333445</v>
       </c>
       <c r="H38" t="n">
-        <v>19.20170313473577</v>
+        <v>19.02239846724894</v>
       </c>
       <c r="I38" t="n">
-        <v>72.28352594672539</v>
+        <v>71.60854552995146</v>
       </c>
       <c r="J38" t="n">
-        <v>159.1329721891157</v>
+        <v>157.6469954263074</v>
       </c>
       <c r="K38" t="n">
-        <v>238.4990743439665</v>
+        <v>236.2719803762548</v>
       </c>
       <c r="L38" t="n">
-        <v>295.8791912544677</v>
+        <v>293.1162842544015</v>
       </c>
       <c r="M38" t="n">
-        <v>329.2226100873598</v>
+        <v>326.1483436946005</v>
       </c>
       <c r="N38" t="n">
-        <v>331.3159546937923</v>
+        <v>326.7437539051091</v>
       </c>
       <c r="O38" t="n">
-        <v>315.9058668661261</v>
+        <v>312.9559516415176</v>
       </c>
       <c r="P38" t="n">
-        <v>269.6183486297008</v>
+        <v>267.1006642341983</v>
       </c>
       <c r="Q38" t="n">
-        <v>202.4721512892663</v>
+        <v>200.5814751597833</v>
       </c>
       <c r="R38" t="n">
-        <v>117.7765394397507</v>
+        <v>116.6767472445578</v>
       </c>
       <c r="S38" t="n">
-        <v>42.72513708607755</v>
+        <v>42.32617161698383</v>
       </c>
       <c r="T38" t="n">
-        <v>8.207538676656254</v>
+        <v>8.13089703799656</v>
       </c>
       <c r="U38" t="n">
-        <v>0.1499949958041119</v>
+        <v>0.148594349066756</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.003179974885638</v>
+        <v>0.9938123239765417</v>
       </c>
       <c r="H39" t="n">
-        <v>9.688606599553406</v>
+        <v>9.598134813141865</v>
       </c>
       <c r="I39" t="n">
-        <v>34.53931053882572</v>
+        <v>34.21678396147304</v>
       </c>
       <c r="J39" t="n">
-        <v>94.7785080658401</v>
+        <v>93.89347048587145</v>
       </c>
       <c r="K39" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>184.5681137065377</v>
+        <v>179.6260604274939</v>
       </c>
       <c r="M39" t="n">
-        <v>244.0369250192197</v>
+        <v>239.4647242305365</v>
       </c>
       <c r="N39" t="n">
-        <v>233.2446031805347</v>
+        <v>228.6724023918515</v>
       </c>
       <c r="O39" t="n">
-        <v>238.6820355158826</v>
+        <v>236.4532330647169</v>
       </c>
       <c r="P39" t="n">
-        <v>191.5633760814515</v>
+        <v>189.7745656196959</v>
       </c>
       <c r="Q39" t="n">
-        <v>128.0550438117177</v>
+        <v>126.8592713904091</v>
       </c>
       <c r="R39" t="n">
-        <v>62.28515668632063</v>
+        <v>61.70354060619268</v>
       </c>
       <c r="S39" t="n">
-        <v>18.63362804228367</v>
+        <v>18.45962803526601</v>
       </c>
       <c r="T39" t="n">
-        <v>4.04351928473641</v>
+        <v>4.005761077782639</v>
       </c>
       <c r="U39" t="n">
-        <v>0.06599868255826573</v>
+        <v>0.06538238973529882</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8410323919446753</v>
+        <v>0.8331788681022775</v>
       </c>
       <c r="H40" t="n">
-        <v>7.477542539289937</v>
+        <v>7.40771757276389</v>
       </c>
       <c r="I40" t="n">
-        <v>25.2921377504817</v>
+        <v>25.05596086983941</v>
       </c>
       <c r="J40" t="n">
-        <v>59.46099011048854</v>
+        <v>58.90574597483101</v>
       </c>
       <c r="K40" t="n">
-        <v>97.71267244593589</v>
+        <v>96.80023576679186</v>
       </c>
       <c r="L40" t="n">
-        <v>125.0385794351202</v>
+        <v>123.8709746267695</v>
       </c>
       <c r="M40" t="n">
-        <v>131.8356503118367</v>
+        <v>130.6045747517052</v>
       </c>
       <c r="N40" t="n">
-        <v>128.7008932145884</v>
+        <v>127.4990898796877</v>
       </c>
       <c r="O40" t="n">
-        <v>118.8761057268711</v>
+        <v>117.7660458295838</v>
       </c>
       <c r="P40" t="n">
-        <v>101.7190449311996</v>
+        <v>100.7691969202972</v>
       </c>
       <c r="Q40" t="n">
-        <v>70.42499420184005</v>
+        <v>69.76736867354617</v>
       </c>
       <c r="R40" t="n">
-        <v>37.81587464143966</v>
+        <v>37.46275165121694</v>
       </c>
       <c r="S40" t="n">
-        <v>14.65690086689038</v>
+        <v>14.52003536501878</v>
       </c>
       <c r="T40" t="n">
-        <v>3.593502038309066</v>
+        <v>3.559946072800639</v>
       </c>
       <c r="U40" t="n">
-        <v>0.04587449410607325</v>
+        <v>0.0454461200783061</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.874937447551399</v>
+        <v>1.85742936333445</v>
       </c>
       <c r="H41" t="n">
-        <v>19.20170313473577</v>
+        <v>19.02239846724894</v>
       </c>
       <c r="I41" t="n">
-        <v>72.28352594672539</v>
+        <v>71.60854552995146</v>
       </c>
       <c r="J41" t="n">
-        <v>159.1329721891157</v>
+        <v>157.6469954263074</v>
       </c>
       <c r="K41" t="n">
-        <v>238.4990743439665</v>
+        <v>236.2719803762548</v>
       </c>
       <c r="L41" t="n">
-        <v>295.8791912544677</v>
+        <v>293.1162842544015</v>
       </c>
       <c r="M41" t="n">
-        <v>329.2226100873598</v>
+        <v>326.1483436946005</v>
       </c>
       <c r="N41" t="n">
-        <v>331.3159546937923</v>
+        <v>326.7437539051091</v>
       </c>
       <c r="O41" t="n">
-        <v>315.9058668661261</v>
+        <v>312.9559516415176</v>
       </c>
       <c r="P41" t="n">
-        <v>269.6183486297008</v>
+        <v>267.1006642341983</v>
       </c>
       <c r="Q41" t="n">
-        <v>202.4721512892663</v>
+        <v>200.5814751597833</v>
       </c>
       <c r="R41" t="n">
-        <v>117.7765394397507</v>
+        <v>116.6767472445578</v>
       </c>
       <c r="S41" t="n">
-        <v>42.72513708607755</v>
+        <v>42.32617161698383</v>
       </c>
       <c r="T41" t="n">
-        <v>8.207538676656254</v>
+        <v>8.13089703799656</v>
       </c>
       <c r="U41" t="n">
-        <v>0.1499949958041119</v>
+        <v>0.148594349066756</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.003179974885638</v>
+        <v>0.9938123239765417</v>
       </c>
       <c r="H42" t="n">
-        <v>9.688606599553406</v>
+        <v>9.598134813141865</v>
       </c>
       <c r="I42" t="n">
-        <v>34.53931053882572</v>
+        <v>34.21678396147304</v>
       </c>
       <c r="J42" t="n">
-        <v>94.7785080658401</v>
+        <v>93.89347048587145</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>160.4788961922997</v>
       </c>
       <c r="L42" t="n">
-        <v>217.8176520031296</v>
+        <v>215.7836802563978</v>
       </c>
       <c r="M42" t="n">
-        <v>244.0369250192197</v>
+        <v>239.4647242305365</v>
       </c>
       <c r="N42" t="n">
-        <v>233.2446031805347</v>
+        <v>169.8773253450067</v>
       </c>
       <c r="O42" t="n">
-        <v>205.4324972192907</v>
+        <v>236.4532330647169</v>
       </c>
       <c r="P42" t="n">
-        <v>191.5633760814515</v>
+        <v>189.7745656196959</v>
       </c>
       <c r="Q42" t="n">
-        <v>128.0550438117177</v>
+        <v>126.8592713904091</v>
       </c>
       <c r="R42" t="n">
-        <v>62.28515668632063</v>
+        <v>61.70354060619268</v>
       </c>
       <c r="S42" t="n">
-        <v>18.63362804228367</v>
+        <v>18.45962803526601</v>
       </c>
       <c r="T42" t="n">
-        <v>4.04351928473641</v>
+        <v>4.005761077782639</v>
       </c>
       <c r="U42" t="n">
-        <v>0.06599868255826573</v>
+        <v>0.06538238973529882</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8410323919446753</v>
+        <v>0.8331788681022775</v>
       </c>
       <c r="H43" t="n">
-        <v>7.477542539289937</v>
+        <v>7.40771757276389</v>
       </c>
       <c r="I43" t="n">
-        <v>25.2921377504817</v>
+        <v>25.05596086983941</v>
       </c>
       <c r="J43" t="n">
-        <v>59.46099011048854</v>
+        <v>58.90574597483101</v>
       </c>
       <c r="K43" t="n">
-        <v>97.71267244593589</v>
+        <v>96.80023576679186</v>
       </c>
       <c r="L43" t="n">
-        <v>125.0385794351202</v>
+        <v>123.8709746267695</v>
       </c>
       <c r="M43" t="n">
-        <v>131.8356503118367</v>
+        <v>130.6045747517052</v>
       </c>
       <c r="N43" t="n">
-        <v>128.7008932145884</v>
+        <v>127.4990898796877</v>
       </c>
       <c r="O43" t="n">
-        <v>118.8761057268711</v>
+        <v>117.7660458295838</v>
       </c>
       <c r="P43" t="n">
-        <v>101.7190449311996</v>
+        <v>100.7691969202972</v>
       </c>
       <c r="Q43" t="n">
-        <v>70.42499420184005</v>
+        <v>69.76736867354617</v>
       </c>
       <c r="R43" t="n">
-        <v>37.81587464143966</v>
+        <v>37.46275165121694</v>
       </c>
       <c r="S43" t="n">
-        <v>14.65690086689038</v>
+        <v>14.52003536501878</v>
       </c>
       <c r="T43" t="n">
-        <v>3.593502038309066</v>
+        <v>3.559946072800639</v>
       </c>
       <c r="U43" t="n">
-        <v>0.04587449410607325</v>
+        <v>0.0454461200783061</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.874937447551399</v>
+        <v>1.85742936333445</v>
       </c>
       <c r="H44" t="n">
-        <v>19.20170313473577</v>
+        <v>19.02239846724894</v>
       </c>
       <c r="I44" t="n">
-        <v>72.28352594672539</v>
+        <v>71.60854552995146</v>
       </c>
       <c r="J44" t="n">
-        <v>159.1329721891157</v>
+        <v>157.6469954263074</v>
       </c>
       <c r="K44" t="n">
-        <v>238.4990743439665</v>
+        <v>236.2719803762548</v>
       </c>
       <c r="L44" t="n">
-        <v>295.8791912544677</v>
+        <v>293.1162842544015</v>
       </c>
       <c r="M44" t="n">
-        <v>329.2226100873598</v>
+        <v>326.1483436946005</v>
       </c>
       <c r="N44" t="n">
-        <v>331.3159546937923</v>
+        <v>326.7437539051091</v>
       </c>
       <c r="O44" t="n">
-        <v>315.9058668661261</v>
+        <v>312.9559516415176</v>
       </c>
       <c r="P44" t="n">
-        <v>269.6183486297008</v>
+        <v>267.1006642341983</v>
       </c>
       <c r="Q44" t="n">
-        <v>202.4721512892663</v>
+        <v>200.5814751597833</v>
       </c>
       <c r="R44" t="n">
-        <v>117.7765394397507</v>
+        <v>116.6767472445578</v>
       </c>
       <c r="S44" t="n">
-        <v>42.72513708607755</v>
+        <v>42.32617161698383</v>
       </c>
       <c r="T44" t="n">
-        <v>8.207538676656254</v>
+        <v>8.13089703799656</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1499949958041119</v>
+        <v>0.148594349066756</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.003179974885638</v>
+        <v>0.9938123239765417</v>
       </c>
       <c r="H45" t="n">
-        <v>9.688606599553406</v>
+        <v>9.598134813141865</v>
       </c>
       <c r="I45" t="n">
-        <v>34.53931053882572</v>
+        <v>34.21678396147304</v>
       </c>
       <c r="J45" t="n">
-        <v>94.7785080658401</v>
+        <v>93.89347048587145</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>160.4788961922997</v>
       </c>
       <c r="L45" t="n">
-        <v>184.5681137065377</v>
+        <v>215.7836802563978</v>
       </c>
       <c r="M45" t="n">
-        <v>244.0369250192197</v>
+        <v>239.4647242305365</v>
       </c>
       <c r="N45" t="n">
-        <v>233.2446031805347</v>
+        <v>228.6724023918515</v>
       </c>
       <c r="O45" t="n">
-        <v>238.6820355158826</v>
+        <v>177.6581560178722</v>
       </c>
       <c r="P45" t="n">
-        <v>191.5633760814515</v>
+        <v>189.7745656196959</v>
       </c>
       <c r="Q45" t="n">
-        <v>128.0550438117177</v>
+        <v>126.8592713904091</v>
       </c>
       <c r="R45" t="n">
-        <v>62.28515668632063</v>
+        <v>61.70354060619268</v>
       </c>
       <c r="S45" t="n">
-        <v>18.63362804228367</v>
+        <v>18.45962803526601</v>
       </c>
       <c r="T45" t="n">
-        <v>4.04351928473641</v>
+        <v>4.005761077782639</v>
       </c>
       <c r="U45" t="n">
-        <v>0.06599868255826573</v>
+        <v>0.06538238973529882</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.8410323919446753</v>
+        <v>0.8331788681022775</v>
       </c>
       <c r="H46" t="n">
-        <v>7.477542539289937</v>
+        <v>7.40771757276389</v>
       </c>
       <c r="I46" t="n">
-        <v>25.2921377504817</v>
+        <v>25.05596086983941</v>
       </c>
       <c r="J46" t="n">
-        <v>59.46099011048854</v>
+        <v>58.90574597483101</v>
       </c>
       <c r="K46" t="n">
-        <v>97.71267244593589</v>
+        <v>96.80023576679186</v>
       </c>
       <c r="L46" t="n">
-        <v>125.0385794351202</v>
+        <v>123.8709746267695</v>
       </c>
       <c r="M46" t="n">
-        <v>131.8356503118367</v>
+        <v>130.6045747517052</v>
       </c>
       <c r="N46" t="n">
-        <v>128.7008932145884</v>
+        <v>127.4990898796877</v>
       </c>
       <c r="O46" t="n">
-        <v>118.8761057268711</v>
+        <v>117.7660458295838</v>
       </c>
       <c r="P46" t="n">
-        <v>101.7190449311996</v>
+        <v>100.7691969202972</v>
       </c>
       <c r="Q46" t="n">
-        <v>70.42499420184005</v>
+        <v>69.76736867354617</v>
       </c>
       <c r="R46" t="n">
-        <v>37.81587464143966</v>
+        <v>37.46275165121694</v>
       </c>
       <c r="S46" t="n">
-        <v>14.65690086689038</v>
+        <v>14.52003536501878</v>
       </c>
       <c r="T46" t="n">
-        <v>3.593502038309066</v>
+        <v>3.559946072800639</v>
       </c>
       <c r="U46" t="n">
-        <v>0.04587449410607325</v>
+        <v>0.0454461200783061</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35494,7 +35494,7 @@
         <v>12.97021757020698</v>
       </c>
       <c r="L12" t="n">
-        <v>4.080852325640222</v>
+        <v>64.00529135902983</v>
       </c>
       <c r="M12" t="n">
         <v>64.00529135902983</v>
@@ -35503,10 +35503,10 @@
         <v>64.00529135902983</v>
       </c>
       <c r="O12" t="n">
-        <v>64.00529135902983</v>
+        <v>48.44900141068022</v>
       </c>
       <c r="P12" t="n">
-        <v>44.36814908503999</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35649,22 +35649,22 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>1.949118570750926</v>
+        <v>13.90947242938014</v>
       </c>
       <c r="L14" t="n">
-        <v>39.69256086708162</v>
+        <v>54.53043743554463</v>
       </c>
       <c r="M14" t="n">
-        <v>64.00529135902983</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="N14" t="n">
-        <v>64.00529135902983</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="O14" t="n">
-        <v>64.00529135902983</v>
+        <v>79.84747424434661</v>
       </c>
       <c r="P14" t="n">
-        <v>19.77753954305464</v>
+        <v>33.29847611381774</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35728,22 +35728,22 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>12.97021757020698</v>
+        <v>14.84955516042944</v>
       </c>
       <c r="L15" t="n">
-        <v>64.00529135902983</v>
+        <v>75.15371678069201</v>
       </c>
       <c r="M15" t="n">
-        <v>64.00529135902983</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="N15" t="n">
-        <v>4.080852325640222</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="O15" t="n">
-        <v>64.00529135902983</v>
+        <v>91.5825882819677</v>
       </c>
       <c r="P15" t="n">
-        <v>44.36814908503999</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35977,10 +35977,10 @@
         <v>92.6649492891022</v>
       </c>
       <c r="O18" t="n">
-        <v>31.36355191321351</v>
+        <v>85.33830333241384</v>
       </c>
       <c r="P18" t="n">
-        <v>53.97475141920032</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36208,13 +36208,13 @@
         <v>75.15371678069201</v>
       </c>
       <c r="M21" t="n">
-        <v>92.6649492891022</v>
+        <v>32.44591292034803</v>
       </c>
       <c r="N21" t="n">
         <v>92.6649492891022</v>
       </c>
       <c r="O21" t="n">
-        <v>31.36355191321351</v>
+        <v>91.5825882819677</v>
       </c>
       <c r="P21" t="n">
         <v>53.97475141920032</v>
@@ -36360,22 +36360,22 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>18.40922329898592</v>
+        <v>16.18212933127421</v>
       </c>
       <c r="L23" t="n">
-        <v>60.11277628448045</v>
+        <v>57.3498692844143</v>
       </c>
       <c r="M23" t="n">
-        <v>98.87637686008711</v>
+        <v>95.80211046732776</v>
       </c>
       <c r="N23" t="n">
-        <v>101.9028910972014</v>
+        <v>97.33069030851817</v>
       </c>
       <c r="O23" t="n">
-        <v>85.80765544443935</v>
+        <v>82.85774021983084</v>
       </c>
       <c r="P23" t="n">
-        <v>38.38535287443131</v>
+        <v>35.86766847892875</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -36442,19 +36442,19 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>46.0137339266635</v>
+        <v>77.22930047652363</v>
       </c>
       <c r="M24" t="n">
-        <v>101.9028910972014</v>
+        <v>97.33069030851817</v>
       </c>
       <c r="N24" t="n">
-        <v>101.9028910972014</v>
+        <v>97.33069030851817</v>
       </c>
       <c r="O24" t="n">
-        <v>96.08579107143817</v>
+        <v>57.69936879136851</v>
       </c>
       <c r="P24" t="n">
-        <v>57.58896866712124</v>
+        <v>55.8001582053657</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36527,7 +36527,7 @@
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>1.01534874935524</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
@@ -36597,22 +36597,22 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>18.40922329898592</v>
+        <v>16.18212933127421</v>
       </c>
       <c r="L26" t="n">
-        <v>60.11277628448045</v>
+        <v>57.3498692844143</v>
       </c>
       <c r="M26" t="n">
-        <v>98.87637686008711</v>
+        <v>95.80211046732776</v>
       </c>
       <c r="N26" t="n">
-        <v>101.9028910972014</v>
+        <v>97.33069030851817</v>
       </c>
       <c r="O26" t="n">
-        <v>85.80765544443935</v>
+        <v>82.85774021983084</v>
       </c>
       <c r="P26" t="n">
-        <v>38.38535287443131</v>
+        <v>35.86766847892875</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -36676,22 +36676,22 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>22.63745721794075</v>
       </c>
       <c r="L27" t="n">
-        <v>79.2632722232554</v>
+        <v>77.22930047652363</v>
       </c>
       <c r="M27" t="n">
-        <v>101.9028910972014</v>
+        <v>97.33069030851817</v>
       </c>
       <c r="N27" t="n">
-        <v>101.9028910972014</v>
+        <v>38.53561326167345</v>
       </c>
       <c r="O27" t="n">
-        <v>62.83625277484626</v>
+        <v>93.85698862027249</v>
       </c>
       <c r="P27" t="n">
-        <v>57.58896866712124</v>
+        <v>55.8001582053657</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36764,7 +36764,7 @@
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>1.01534874935524</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
@@ -36834,22 +36834,22 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>18.40922329898592</v>
+        <v>16.18212933127421</v>
       </c>
       <c r="L29" t="n">
-        <v>60.11277628448045</v>
+        <v>57.3498692844143</v>
       </c>
       <c r="M29" t="n">
-        <v>98.87637686008711</v>
+        <v>95.80211046732776</v>
       </c>
       <c r="N29" t="n">
-        <v>101.9028910972014</v>
+        <v>97.33069030851817</v>
       </c>
       <c r="O29" t="n">
-        <v>85.80765544443935</v>
+        <v>82.85774021983084</v>
       </c>
       <c r="P29" t="n">
-        <v>38.38535287443131</v>
+        <v>35.86766847892875</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -36913,22 +36913,22 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>22.63745721794075</v>
       </c>
       <c r="L30" t="n">
-        <v>79.2632722232554</v>
+        <v>18.43422342967892</v>
       </c>
       <c r="M30" t="n">
-        <v>68.65335280060947</v>
+        <v>97.33069030851817</v>
       </c>
       <c r="N30" t="n">
-        <v>101.9028910972014</v>
+        <v>97.33069030851817</v>
       </c>
       <c r="O30" t="n">
-        <v>96.08579107143817</v>
+        <v>93.85698862027249</v>
       </c>
       <c r="P30" t="n">
-        <v>57.58896866712124</v>
+        <v>55.8001582053657</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37001,7 +37001,7 @@
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>1.01534874935524</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
@@ -37071,22 +37071,22 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>18.40922329898592</v>
+        <v>16.18212933127421</v>
       </c>
       <c r="L32" t="n">
-        <v>60.11277628448045</v>
+        <v>57.3498692844143</v>
       </c>
       <c r="M32" t="n">
-        <v>98.87637686008711</v>
+        <v>95.80211046732776</v>
       </c>
       <c r="N32" t="n">
-        <v>101.9028910972014</v>
+        <v>97.33069030851817</v>
       </c>
       <c r="O32" t="n">
-        <v>85.80765544443935</v>
+        <v>82.85774021983084</v>
       </c>
       <c r="P32" t="n">
-        <v>38.38535287443131</v>
+        <v>35.86766847892875</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -37153,19 +37153,19 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>79.2632722232554</v>
+        <v>77.22930047652363</v>
       </c>
       <c r="M33" t="n">
-        <v>101.9028910972014</v>
+        <v>61.17307047961421</v>
       </c>
       <c r="N33" t="n">
-        <v>101.9028910972014</v>
+        <v>97.33069030851817</v>
       </c>
       <c r="O33" t="n">
-        <v>96.08579107143817</v>
+        <v>93.85698862027249</v>
       </c>
       <c r="P33" t="n">
-        <v>24.33943037052931</v>
+        <v>55.8001582053657</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37238,7 +37238,7 @@
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>1.01534874935524</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
@@ -37308,22 +37308,22 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>18.40922329898592</v>
+        <v>16.18212933127421</v>
       </c>
       <c r="L35" t="n">
-        <v>60.11277628448045</v>
+        <v>57.3498692844143</v>
       </c>
       <c r="M35" t="n">
-        <v>98.87637686008711</v>
+        <v>95.80211046732776</v>
       </c>
       <c r="N35" t="n">
-        <v>101.9028910972014</v>
+        <v>97.33069030851817</v>
       </c>
       <c r="O35" t="n">
-        <v>85.80765544443935</v>
+        <v>82.85774021983084</v>
       </c>
       <c r="P35" t="n">
-        <v>38.38535287443131</v>
+        <v>35.86766847892875</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -37387,22 +37387,22 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>22.63745721794075</v>
       </c>
       <c r="L36" t="n">
-        <v>46.0137339266635</v>
+        <v>77.22930047652363</v>
       </c>
       <c r="M36" t="n">
-        <v>101.9028910972014</v>
+        <v>97.33069030851817</v>
       </c>
       <c r="N36" t="n">
-        <v>101.9028910972014</v>
+        <v>38.53561326167345</v>
       </c>
       <c r="O36" t="n">
-        <v>96.08579107143817</v>
+        <v>93.85698862027249</v>
       </c>
       <c r="P36" t="n">
-        <v>57.58896866712124</v>
+        <v>55.8001582053657</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37475,7 +37475,7 @@
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>1.01534874935524</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
@@ -37545,22 +37545,22 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>18.40922329898592</v>
+        <v>16.18212933127421</v>
       </c>
       <c r="L38" t="n">
-        <v>60.11277628448045</v>
+        <v>57.3498692844143</v>
       </c>
       <c r="M38" t="n">
-        <v>98.87637686008711</v>
+        <v>95.80211046732776</v>
       </c>
       <c r="N38" t="n">
-        <v>101.9028910972014</v>
+        <v>97.33069030851817</v>
       </c>
       <c r="O38" t="n">
-        <v>85.80765544443935</v>
+        <v>82.85774021983084</v>
       </c>
       <c r="P38" t="n">
-        <v>38.38535287443131</v>
+        <v>35.86766847892875</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -37627,19 +37627,19 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>46.0137339266635</v>
+        <v>41.07168064761967</v>
       </c>
       <c r="M39" t="n">
-        <v>101.9028910972014</v>
+        <v>97.33069030851817</v>
       </c>
       <c r="N39" t="n">
-        <v>101.9028910972014</v>
+        <v>97.33069030851817</v>
       </c>
       <c r="O39" t="n">
-        <v>96.08579107143817</v>
+        <v>93.85698862027249</v>
       </c>
       <c r="P39" t="n">
-        <v>57.58896866712124</v>
+        <v>55.8001582053657</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37712,7 +37712,7 @@
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>1.01534874935524</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
@@ -37782,22 +37782,22 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>18.40922329898592</v>
+        <v>16.18212933127421</v>
       </c>
       <c r="L41" t="n">
-        <v>60.11277628448045</v>
+        <v>57.3498692844143</v>
       </c>
       <c r="M41" t="n">
-        <v>98.87637686008711</v>
+        <v>95.80211046732776</v>
       </c>
       <c r="N41" t="n">
-        <v>101.9028910972014</v>
+        <v>97.33069030851817</v>
       </c>
       <c r="O41" t="n">
-        <v>85.80765544443935</v>
+        <v>82.85774021983084</v>
       </c>
       <c r="P41" t="n">
-        <v>38.38535287443131</v>
+        <v>35.86766847892875</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37861,22 +37861,22 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>22.63745721794075</v>
       </c>
       <c r="L42" t="n">
-        <v>79.2632722232554</v>
+        <v>77.22930047652363</v>
       </c>
       <c r="M42" t="n">
-        <v>101.9028910972014</v>
+        <v>97.33069030851817</v>
       </c>
       <c r="N42" t="n">
-        <v>101.9028910972014</v>
+        <v>38.53561326167345</v>
       </c>
       <c r="O42" t="n">
-        <v>62.83625277484626</v>
+        <v>93.85698862027249</v>
       </c>
       <c r="P42" t="n">
-        <v>57.58896866712124</v>
+        <v>55.8001582053657</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37949,7 +37949,7 @@
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>1.01534874935524</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
@@ -38019,22 +38019,22 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>18.40922329898592</v>
+        <v>16.18212933127421</v>
       </c>
       <c r="L44" t="n">
-        <v>60.11277628448045</v>
+        <v>57.3498692844143</v>
       </c>
       <c r="M44" t="n">
-        <v>98.87637686008711</v>
+        <v>95.80211046732776</v>
       </c>
       <c r="N44" t="n">
-        <v>101.9028910972014</v>
+        <v>97.33069030851817</v>
       </c>
       <c r="O44" t="n">
-        <v>85.80765544443935</v>
+        <v>82.85774021983084</v>
       </c>
       <c r="P44" t="n">
-        <v>38.38535287443131</v>
+        <v>35.86766847892875</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38098,22 +38098,22 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>22.63745721794075</v>
       </c>
       <c r="L45" t="n">
-        <v>46.0137339266635</v>
+        <v>77.22930047652363</v>
       </c>
       <c r="M45" t="n">
-        <v>101.9028910972014</v>
+        <v>97.33069030851817</v>
       </c>
       <c r="N45" t="n">
-        <v>101.9028910972014</v>
+        <v>97.33069030851817</v>
       </c>
       <c r="O45" t="n">
-        <v>96.08579107143817</v>
+        <v>35.06191157342772</v>
       </c>
       <c r="P45" t="n">
-        <v>57.58896866712124</v>
+        <v>55.8001582053657</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38186,7 +38186,7 @@
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>1.01534874935524</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
